--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Project\EPAR\Working Files\RA Working Folders\Sam\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\netid.washington.edu\wfs\EvansEPAR\Project\EPAR\Working Files\RA Working Folders\Sam\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DB3AE-6865-4361-9D20-85ACD29383C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327A401-79AF-4B28-8EF2-26D98F855BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="880">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -1294,66 +1294,6 @@
     <t>Contract coverage for chickens</t>
   </si>
   <si>
-    <t>Number of chickens</t>
-  </si>
-  <si>
-    <t>Number of chicken births</t>
-  </si>
-  <si>
-    <t>Number of new chickens</t>
-  </si>
-  <si>
-    <t>Number of chicken deaths</t>
-  </si>
-  <si>
-    <t>Number of chickens sold (live)</t>
-  </si>
-  <si>
-    <t>Price of last chicken sale (KHR/kg)</t>
-  </si>
-  <si>
-    <t>Number of chickens stolen</t>
-  </si>
-  <si>
-    <t>Number of chickens gifted</t>
-  </si>
-  <si>
-    <t>Number of chickens slaughtered</t>
-  </si>
-  <si>
-    <t>Number of chickens vaccinated</t>
-  </si>
-  <si>
-    <t>Number of chicken egg-laying months</t>
-  </si>
-  <si>
-    <t>Number of chicken egg-laying days per month</t>
-  </si>
-  <si>
-    <t>Average number of chicken eggs collected per day</t>
-  </si>
-  <si>
-    <t>Price of chicken eggs sold (KHR)</t>
-  </si>
-  <si>
-    <t>Chickens raised for sale (Y/N)</t>
-  </si>
-  <si>
-    <t>Chickens raised for gift (Y/N)</t>
-  </si>
-  <si>
-    <t>Chickens raised for slaughter (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs collected (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs gifted (Y/N)</t>
-  </si>
-  <si>
     <t>Average number of duck eggs collected per day</t>
   </si>
   <si>
@@ -1420,123 +1360,6 @@
     <t>Pigs raised for milk (Y/N)</t>
   </si>
   <si>
-    <t>Chicken eggs consumed (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs cultivated for other reason (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken flock growth</t>
-  </si>
-  <si>
-    <t>Chicken flock reduction</t>
-  </si>
-  <si>
-    <t>Chicken flock net growth (reduction)</t>
-  </si>
-  <si>
-    <t>Chicken flock size 2019</t>
-  </si>
-  <si>
-    <t>Chicken flock growth, %</t>
-  </si>
-  <si>
-    <t>Chicken flock reduction, %</t>
-  </si>
-  <si>
-    <t>Chicken flock net growth (reduction), %</t>
-  </si>
-  <si>
-    <t>Chickens vaccinated, %</t>
-  </si>
-  <si>
-    <t>Chickens vaccinated (Y/N)</t>
-  </si>
-  <si>
-    <t>Total chicken egg production</t>
-  </si>
-  <si>
-    <t>Total chicken egg production, annualized</t>
-  </si>
-  <si>
-    <t>Chicken eggs lost, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs kept, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs kept</t>
-  </si>
-  <si>
-    <t>Chicken eggs consumed, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs consumed</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold</t>
-  </si>
-  <si>
-    <t>Median price of chicken eggs sold in province</t>
-  </si>
-  <si>
-    <t>Chicken egg production value (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg consumption value (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg revenue from sales (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg price (KHR/egg), observed</t>
-  </si>
-  <si>
-    <t>Chicken egg price (KHR/egg), imputed where missing</t>
-  </si>
-  <si>
-    <t>Median national price of chicken eggs (KHR/egg), observed</t>
-  </si>
-  <si>
-    <t>Median price of chickens sold in province (KHR/kg)</t>
-  </si>
-  <si>
-    <t>Chicken live-sale price (KHR/kg), observed</t>
-  </si>
-  <si>
-    <t>Chicken live-sale price (KHR/kg), imputed where missing</t>
-  </si>
-  <si>
-    <t>Median national price of chickens sold (KHR/kg), observed</t>
-  </si>
-  <si>
-    <t>Chicken price per live sale (KHR)</t>
-  </si>
-  <si>
-    <t>Revenue from chicken sales (KHR)</t>
-  </si>
-  <si>
-    <t>Price of slaughtered chicken (KHR/bird)</t>
-  </si>
-  <si>
-    <t>Value of slaughtered chicken (KHR)</t>
-  </si>
-  <si>
-    <t>Total value of chicken production (KHR)</t>
-  </si>
-  <si>
-    <t>Estimated area for raising chickens</t>
-  </si>
-  <si>
-    <t>Chicken productivity (KHR/Ha)</t>
-  </si>
-  <si>
-    <t>Chicken yield (Headcount/Ha)</t>
-  </si>
-  <si>
     <t>Duck feeding practice</t>
   </si>
   <si>
@@ -2467,12 +2290,6 @@
     <t>mortality_rt_Chickens</t>
   </si>
   <si>
-    <t>Chicken mortality rate, %</t>
-  </si>
-  <si>
-    <t>Number of chicken deaths, share of total flock over survey timeframe, %</t>
-  </si>
-  <si>
     <t>S4_Q15a, S4_Q15b, S4_Q14, S4_Q15c</t>
   </si>
   <si>
@@ -2531,6 +2348,318 @@
   </si>
   <si>
     <t>Number of pig deaths, share of total herd over survey timeframe, %</t>
+  </si>
+  <si>
+    <t>Live Chickens Sold</t>
+  </si>
+  <si>
+    <t>Chicken Births</t>
+  </si>
+  <si>
+    <t>Chicken Deaths</t>
+  </si>
+  <si>
+    <t>New Chickens</t>
+  </si>
+  <si>
+    <t>(KHR/kg)</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price</t>
+  </si>
+  <si>
+    <t>Chickens Stolen</t>
+  </si>
+  <si>
+    <t>Chickens Gifted</t>
+  </si>
+  <si>
+    <t>Chickens Slaughtered</t>
+  </si>
+  <si>
+    <t>Number of Chickens</t>
+  </si>
+  <si>
+    <t>Chickens Vaccinated</t>
+  </si>
+  <si>
+    <t>Chicken Egg-Laying Months</t>
+  </si>
+  <si>
+    <t>Births</t>
+  </si>
+  <si>
+    <t>Bought, received, or exchanged</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Stolen</t>
+  </si>
+  <si>
+    <t>Given away as a gift</t>
+  </si>
+  <si>
+    <t>Slaughtered</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Eggs collected per day (avg)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Chicken Egg Price</t>
+  </si>
+  <si>
+    <t>(KHR)</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Sale</t>
+  </si>
+  <si>
+    <t>(Y/N)</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Gift</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Slaughter</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Collected</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Sold</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Consumed</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Gifted</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Growth</t>
+  </si>
+  <si>
+    <t>Gross increase in headcount</t>
+  </si>
+  <si>
+    <t>Gross decrease in headcount</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Decline</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Net Change</t>
+  </si>
+  <si>
+    <t>Net change in headcount</t>
+  </si>
+  <si>
+    <t>Chicken Headcount 2019</t>
+  </si>
+  <si>
+    <t>Headcount, start of survey</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Growth, %</t>
+  </si>
+  <si>
+    <t>Gross increase in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Decline, %</t>
+  </si>
+  <si>
+    <t>Gross decrease in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Net Change, %</t>
+  </si>
+  <si>
+    <t>Net change in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Mortality, %</t>
+  </si>
+  <si>
+    <t>Deaths, %</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination, %</t>
+  </si>
+  <si>
+    <t>Vaccinations, %</t>
+  </si>
+  <si>
+    <t>Produced and collected</t>
+  </si>
+  <si>
+    <t>Chicken Egg Production</t>
+  </si>
+  <si>
+    <t>Chicken Egg Production, Annual</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Lost, %</t>
+  </si>
+  <si>
+    <t>Eggs lost or broken, %</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Kept, %</t>
+  </si>
+  <si>
+    <t>Eggs not lost or broken, %</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Kept</t>
+  </si>
+  <si>
+    <t>Eggs not lost or broken</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Consumed, %</t>
+  </si>
+  <si>
+    <t>Eggs consumed by holding</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Sold, %</t>
+  </si>
+  <si>
+    <t>Eggs sold by holding</t>
+  </si>
+  <si>
+    <t>Eggs sold by holding, %</t>
+  </si>
+  <si>
+    <t>(KHR/egg)</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Revenue</t>
+  </si>
+  <si>
+    <t>Chicken Sale Revenue</t>
+  </si>
+  <si>
+    <t>Chicken Slaughter Price</t>
+  </si>
+  <si>
+    <t>Chicken Slaughter Value</t>
+  </si>
+  <si>
+    <t>Chicken Production Value</t>
+  </si>
+  <si>
+    <t>Area for Raising Chickens</t>
+  </si>
+  <si>
+    <t>Chicken Productivity</t>
+  </si>
+  <si>
+    <t>(KHR/Ha)</t>
+  </si>
+  <si>
+    <t>(Chickens/Ha)</t>
+  </si>
+  <si>
+    <t>Chicken Yield</t>
+  </si>
+  <si>
+    <t>Does the holding have a\nproduction and/or marketing contract?</t>
+  </si>
+  <si>
+    <t>Does the contract cover\n100% of the animals raised?</t>
+  </si>
+  <si>
+    <t>Price of last sale\n(KHR/kg)</t>
+  </si>
+  <si>
+    <t>Months annually eggs collected</t>
+  </si>
+  <si>
+    <t>Chicken Egg-Laying Days\nper Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days per month eggs collected </t>
+  </si>
+  <si>
+    <t>Chicken Eggs Collected\nper Day (Average)</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Cultivated,\nOther Reason</t>
+  </si>
+  <si>
+    <t>Annualized,\nif production each day</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price,\nProvince Median</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price,\nObserved</t>
+  </si>
+  <si>
+    <t>(KHR/egg)\nobserved in survey</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price,\nImputed</t>
+  </si>
+  <si>
+    <t>(KHR/egg)\nimputed when missing from survey</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price,\nNational Median</t>
+  </si>
+  <si>
+    <t>Chicken Egg Value,\nProduced</t>
+  </si>
+  <si>
+    <t>Chicken Egg Value,\nConsumed</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price,\nProvince Median</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price,\nObserved</t>
+  </si>
+  <si>
+    <t>(KHR/kg)\nobserved in survey</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price,\nImputed</t>
+  </si>
+  <si>
+    <t>(KHR/kg)\nimputed when missing from survey</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price,\nNational Median</t>
+  </si>
+  <si>
+    <t>(KHR/chicken)\nimputed using standard weight</t>
+  </si>
+  <si>
+    <t>(KHR)\nimputed price/head, live sales</t>
+  </si>
+  <si>
+    <t>(KHR/chicken),\nprice equiv to live sale</t>
+  </si>
+  <si>
+    <t>(KHR/chicken),\nrevenue &amp; consumption</t>
+  </si>
+  <si>
+    <t>(KHR) eggs, slaughter,\nlive sales</t>
+  </si>
+  <si>
+    <t>Area to manage flock\n(TLU-adjusted)</t>
   </si>
 </sst>
 </file>
@@ -2583,9 +2712,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2623,7 +2752,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2729,7 +2858,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2871,7 +3000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2885,7 +3014,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +3058,7 @@
         <v>420</v>
       </c>
       <c r="J1" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,16 +3075,16 @@
         <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I2" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2969,19 +3098,19 @@
         <v>422</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>851</v>
       </c>
       <c r="E3" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I3" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2995,19 +3124,19 @@
         <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>852</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,25 +3147,25 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>785</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>797</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I5" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3047,22 +3176,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>777</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>788</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I6" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3073,22 +3202,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>779</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>789</v>
       </c>
       <c r="E7" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I7" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,22 +3228,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>778</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>790</v>
       </c>
       <c r="E8" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I8" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,25 +3254,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>776</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>791</v>
       </c>
       <c r="E9" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I9" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
       <c r="J9" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,22 +3283,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>781</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>853</v>
       </c>
       <c r="E10" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,22 +3309,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>782</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>792</v>
       </c>
       <c r="E11" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I11" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,22 +3335,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>783</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>793</v>
       </c>
       <c r="E12" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I12" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,22 +3361,22 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>794</v>
       </c>
       <c r="E13" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I13" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3258,22 +3387,22 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>786</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>795</v>
       </c>
       <c r="E14" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I14" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,22 +3413,22 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>787</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>854</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,22 +3439,22 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>855</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>856</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3336,25 +3465,25 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>436</v>
+        <v>857</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>796</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I17" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
       <c r="J17" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3365,22 +3494,22 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>798</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>799</v>
       </c>
       <c r="E18" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I18" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3391,22 +3520,22 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="E19" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I19" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,22 +3546,22 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>802</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="E20" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I20" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,22 +3572,22 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>803</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="E21" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I21" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,22 +3598,22 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>804</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>801</v>
       </c>
       <c r="E22" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I22" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,22 +3624,22 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>805</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>801</v>
       </c>
       <c r="E23" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I23" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,22 +3650,22 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>806</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>801</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I24" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,22 +3676,22 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>801</v>
       </c>
       <c r="E25" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I25" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3573,22 +3702,22 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>858</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>801</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I26" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,22 +3728,22 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>808</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>809</v>
       </c>
       <c r="E27" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I27" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,22 +3754,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>811</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>810</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I28" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3651,25 +3780,25 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>812</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>813</v>
       </c>
       <c r="E29" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I29" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="J29" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3680,22 +3809,22 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>814</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>815</v>
       </c>
       <c r="E30" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I30" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,25 +3835,25 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>816</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>817</v>
       </c>
       <c r="E31" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3735,25 +3864,25 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>818</v>
       </c>
       <c r="D32" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="E32" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,25 +3893,25 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>820</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>821</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3790,28 +3919,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>814</v>
+        <v>755</v>
       </c>
       <c r="C34" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="D34" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="E34" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H34" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I34" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,25 +3951,25 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>824</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>825</v>
       </c>
       <c r="E35" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H35" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I35" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,22 +3980,22 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>786</v>
       </c>
       <c r="D36" t="s">
-        <v>357</v>
+        <v>801</v>
       </c>
       <c r="E36" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I36" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3877,22 +4006,22 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>827</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>826</v>
       </c>
       <c r="E37" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I37" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,22 +4032,22 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>828</v>
       </c>
       <c r="D38" t="s">
-        <v>359</v>
+        <v>859</v>
       </c>
       <c r="E38" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I38" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,22 +4058,22 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>829</v>
       </c>
       <c r="D39" t="s">
-        <v>360</v>
+        <v>830</v>
       </c>
       <c r="E39" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I39" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,22 +4084,22 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>831</v>
       </c>
       <c r="D40" t="s">
-        <v>361</v>
+        <v>832</v>
       </c>
       <c r="E40" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I40" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,19 +4110,19 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>833</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>834</v>
       </c>
       <c r="E41" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,22 +4133,22 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>835</v>
       </c>
       <c r="D42" t="s">
         <v>363</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I42" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4030,19 +4159,19 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>483</v>
+        <v>806</v>
       </c>
       <c r="D43" t="s">
-        <v>364</v>
+        <v>836</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,22 +4182,22 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>484</v>
+        <v>837</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="E44" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I44" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,19 +4208,19 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>485</v>
+        <v>805</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
+        <v>838</v>
       </c>
       <c r="E45" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4102,19 +4231,19 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>860</v>
       </c>
       <c r="D46" t="s">
-        <v>367</v>
+        <v>840</v>
       </c>
       <c r="E46" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,22 +4254,22 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>490</v>
+        <v>861</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>862</v>
       </c>
       <c r="E47" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I47" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,19 +4280,19 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>491</v>
+        <v>863</v>
       </c>
       <c r="D48" t="s">
-        <v>369</v>
+        <v>864</v>
       </c>
       <c r="E48" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,19 +4303,19 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>492</v>
+        <v>865</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>840</v>
       </c>
       <c r="E49" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,22 +4326,22 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>866</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>799</v>
       </c>
       <c r="E50" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I50" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,22 +4352,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>867</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>799</v>
       </c>
       <c r="E51" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I51" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,22 +4378,22 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>841</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>799</v>
       </c>
       <c r="E52" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I52" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,19 +4404,19 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>493</v>
+        <v>868</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>780</v>
       </c>
       <c r="E53" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,22 +4427,22 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>494</v>
+        <v>869</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>870</v>
       </c>
       <c r="E54" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I54" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,19 +4453,19 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>495</v>
+        <v>871</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>872</v>
       </c>
       <c r="E55" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4347,19 +4476,19 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>873</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>780</v>
       </c>
       <c r="E56" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,22 +4499,22 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>497</v>
+        <v>781</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>874</v>
       </c>
       <c r="E57" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I57" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,19 +4525,19 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>842</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>875</v>
       </c>
       <c r="E58" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,19 +4548,19 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>499</v>
+        <v>843</v>
       </c>
       <c r="D59" t="s">
-        <v>380</v>
+        <v>876</v>
       </c>
       <c r="E59" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,22 +4571,22 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>500</v>
+        <v>844</v>
       </c>
       <c r="D60" t="s">
-        <v>381</v>
+        <v>877</v>
       </c>
       <c r="E60" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,19 +4597,19 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>501</v>
+        <v>845</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>878</v>
       </c>
       <c r="E61" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4491,19 +4620,19 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>502</v>
+        <v>846</v>
       </c>
       <c r="D62" t="s">
-        <v>383</v>
+        <v>879</v>
       </c>
       <c r="E62" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,19 +4643,19 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>503</v>
+        <v>847</v>
       </c>
       <c r="D63" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="E63" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H63" t="s">
         <v>63</v>
@@ -4540,19 +4669,19 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>850</v>
       </c>
       <c r="D64" t="s">
-        <v>384</v>
+        <v>849</v>
       </c>
       <c r="E64" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H64" t="s">
         <v>63</v>
@@ -4566,22 +4695,22 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="D65" t="s">
         <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I65" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,22 +4721,22 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="D66" t="s">
         <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I66" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,22 +4747,22 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s">
         <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I67" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,22 +4773,22 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I68" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4670,22 +4799,22 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s">
         <v>329</v>
       </c>
       <c r="E69" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I69" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4696,22 +4825,22 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="D70" t="s">
         <v>330</v>
       </c>
       <c r="E70" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I70" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4722,22 +4851,22 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="D71" t="s">
         <v>331</v>
       </c>
       <c r="E71" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I71" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,22 +4877,22 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="D72" t="s">
         <v>332</v>
       </c>
       <c r="E72" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I72" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,22 +4903,22 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="D73" t="s">
         <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I73" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4800,22 +4929,22 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="D74" t="s">
         <v>334</v>
       </c>
       <c r="E74" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I74" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,22 +4955,22 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="D75" t="s">
         <v>335</v>
       </c>
       <c r="E75" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I75" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4852,22 +4981,22 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="D76" t="s">
         <v>336</v>
       </c>
       <c r="E76" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I76" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,22 +5007,22 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="D77" t="s">
         <v>337</v>
       </c>
       <c r="E77" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I77" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,22 +5033,22 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="D78" t="s">
         <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I78" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4930,22 +5059,22 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
         <v>339</v>
       </c>
       <c r="E79" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I79" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4956,22 +5085,22 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D80" t="s">
         <v>340</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I80" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4982,22 +5111,22 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="D81" t="s">
         <v>341</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I81" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,22 +5137,22 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D82" t="s">
         <v>342</v>
       </c>
       <c r="E82" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I82" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,22 +5163,22 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D83" t="s">
         <v>343</v>
       </c>
       <c r="E83" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I83" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5060,22 +5189,22 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D84" t="s">
         <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I84" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5086,22 +5215,22 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I85" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5112,22 +5241,22 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="D86" t="s">
         <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I86" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5138,22 +5267,22 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I87" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5164,22 +5293,22 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="D88" t="s">
         <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I88" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,22 +5319,22 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="D89" t="s">
         <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I89" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,22 +5345,22 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
         <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I90" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,22 +5371,22 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="D91" t="s">
         <v>351</v>
       </c>
       <c r="E91" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I91" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5268,19 +5397,19 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
         <v>352</v>
       </c>
       <c r="E92" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,22 +5420,22 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>454</v>
       </c>
       <c r="D93" t="s">
         <v>353</v>
       </c>
       <c r="E93" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I93" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5317,25 +5446,25 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="D94" t="s">
         <v>354</v>
       </c>
       <c r="E94" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H94" t="s">
         <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,25 +5475,25 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="D95" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="E95" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H95" t="s">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,25 +5504,25 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="D96" t="s">
         <v>355</v>
       </c>
       <c r="E96" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H96" t="s">
         <v>94</v>
       </c>
       <c r="I96" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5401,28 +5530,28 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>819</v>
+        <v>758</v>
       </c>
       <c r="C97" t="s">
-        <v>820</v>
+        <v>759</v>
       </c>
       <c r="D97" t="s">
-        <v>821</v>
+        <v>760</v>
       </c>
       <c r="E97" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H97" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I97" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,25 +5562,25 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="D98" t="s">
         <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H98" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I98" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,22 +5591,22 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="D99" t="s">
         <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I99" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5488,22 +5617,22 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="D100" t="s">
         <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I100" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,22 +5643,22 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="D101" t="s">
         <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I101" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5540,22 +5669,22 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="D102" t="s">
         <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I102" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,22 +5695,22 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
         <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I103" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5592,19 +5721,19 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="D104" t="s">
         <v>362</v>
       </c>
       <c r="E104" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,22 +5744,22 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
         <v>363</v>
       </c>
       <c r="E105" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I105" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5641,19 +5770,19 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
       <c r="D106" t="s">
         <v>364</v>
       </c>
       <c r="E106" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,22 +5793,22 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="D107" t="s">
         <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I107" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,19 +5819,19 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
         <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,19 +5842,19 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
         <v>367</v>
       </c>
       <c r="E109" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5736,22 +5865,22 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="D110" t="s">
         <v>368</v>
       </c>
       <c r="E110" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I110" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5762,19 +5891,19 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
       </c>
       <c r="E111" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5785,19 +5914,19 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="D112" t="s">
         <v>370</v>
       </c>
       <c r="E112" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5808,22 +5937,22 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="D113" t="s">
         <v>371</v>
       </c>
       <c r="E113" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I113" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,22 +5963,22 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
         <v>372</v>
       </c>
       <c r="E114" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I114" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5860,22 +5989,22 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="D115" t="s">
         <v>373</v>
       </c>
       <c r="E115" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I115" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5886,19 +6015,19 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="D116" t="s">
         <v>374</v>
       </c>
       <c r="E116" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,22 +6038,22 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="D117" t="s">
         <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I117" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,19 +6064,19 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
       <c r="D118" t="s">
         <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5958,19 +6087,19 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="D119" t="s">
         <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,22 +6110,22 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="D120" t="s">
         <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I120" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,19 +6136,19 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="D121" t="s">
         <v>379</v>
       </c>
       <c r="E121" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6030,19 +6159,19 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="D122" t="s">
         <v>380</v>
       </c>
       <c r="E122" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,22 +6182,22 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="D123" t="s">
         <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I123" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,19 +6208,19 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
       <c r="D124" t="s">
         <v>382</v>
       </c>
       <c r="E124" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,19 +6231,19 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>562</v>
+        <v>503</v>
       </c>
       <c r="D125" t="s">
         <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6254,19 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="D126" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E126" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H126" t="s">
         <v>125</v>
@@ -6151,19 +6280,19 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="D127" t="s">
         <v>384</v>
       </c>
       <c r="E127" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H127" t="s">
         <v>125</v>
@@ -6177,22 +6306,22 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="D128" t="s">
         <v>325</v>
       </c>
       <c r="E128" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I128" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6203,22 +6332,22 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="D129" t="s">
         <v>326</v>
       </c>
       <c r="E129" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I129" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6229,22 +6358,22 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="D130" t="s">
         <v>327</v>
       </c>
       <c r="E130" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I130" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6255,22 +6384,22 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="D131" t="s">
         <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I131" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,22 +6410,22 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="D132" t="s">
         <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I132" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,22 +6436,22 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="D133" t="s">
         <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I133" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6333,22 +6462,22 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="D134" t="s">
         <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I134" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6359,22 +6488,22 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="D135" t="s">
         <v>332</v>
       </c>
       <c r="E135" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I135" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6385,22 +6514,22 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="D136" t="s">
         <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I136" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,22 +6540,22 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="D137" t="s">
         <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I137" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,22 +6566,22 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="D138" t="s">
         <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I138" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,22 +6592,22 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="D139" t="s">
         <v>336</v>
       </c>
       <c r="E139" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I139" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,22 +6618,22 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>586</v>
+        <v>527</v>
       </c>
       <c r="D140" t="s">
         <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I140" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,22 +6644,22 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="D141" t="s">
         <v>338</v>
       </c>
       <c r="E141" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I141" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6541,22 +6670,22 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="D142" t="s">
         <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I142" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,22 +6696,22 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="D143" t="s">
         <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I143" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,22 +6722,22 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="D144" t="s">
         <v>341</v>
       </c>
       <c r="E144" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I144" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6619,22 +6748,22 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s">
         <v>342</v>
       </c>
       <c r="E145" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I145" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,22 +6774,22 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D146" t="s">
         <v>343</v>
       </c>
       <c r="E146" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I146" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,22 +6800,22 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D147" t="s">
         <v>344</v>
       </c>
       <c r="E147" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I147" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,22 +6826,22 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
       <c r="D148" t="s">
         <v>345</v>
       </c>
       <c r="E148" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I148" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,22 +6852,22 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="D149" t="s">
         <v>346</v>
       </c>
       <c r="E149" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I149" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,22 +6878,22 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="D150" t="s">
         <v>347</v>
       </c>
       <c r="E150" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I150" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,22 +6904,22 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="D151" t="s">
         <v>348</v>
       </c>
       <c r="E151" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I151" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,22 +6930,22 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="D152" t="s">
         <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I152" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,22 +6956,22 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="D153" t="s">
         <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I153" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6853,22 +6982,22 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="D154" t="s">
         <v>351</v>
       </c>
       <c r="E154" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I154" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,19 +7008,19 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="D155" t="s">
         <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,22 +7031,22 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="D156" t="s">
         <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I156" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6928,25 +7057,25 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="D157" t="s">
         <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H157" t="s">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6957,25 +7086,25 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="D158" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="E158" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H158" t="s">
         <v>156</v>
       </c>
       <c r="I158" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6986,25 +7115,25 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="D159" t="s">
         <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H159" t="s">
         <v>156</v>
       </c>
       <c r="I159" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7012,28 +7141,28 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>822</v>
+        <v>761</v>
       </c>
       <c r="C160" t="s">
-        <v>823</v>
+        <v>762</v>
       </c>
       <c r="D160" t="s">
-        <v>824</v>
+        <v>763</v>
       </c>
       <c r="E160" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H160" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I160" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7044,25 +7173,25 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="D161" t="s">
         <v>356</v>
       </c>
       <c r="E161" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H161" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I161" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7073,22 +7202,22 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="D162" t="s">
         <v>357</v>
       </c>
       <c r="E162" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I162" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,22 +7228,22 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="D163" t="s">
         <v>358</v>
       </c>
       <c r="E163" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I163" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7125,22 +7254,22 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="D164" t="s">
         <v>359</v>
       </c>
       <c r="E164" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I164" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -7151,22 +7280,22 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="D165" t="s">
         <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I165" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7177,22 +7306,22 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="D166" t="s">
         <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I166" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7203,19 +7332,19 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="D167" t="s">
         <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7226,22 +7355,22 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="D168" t="s">
         <v>363</v>
       </c>
       <c r="E168" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I168" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7252,19 +7381,19 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="D169" t="s">
         <v>364</v>
       </c>
       <c r="E169" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,22 +7404,22 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="D170" t="s">
         <v>365</v>
       </c>
       <c r="E170" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I170" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,19 +7430,19 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="D171" t="s">
         <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,19 +7453,19 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="D172" t="s">
         <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,22 +7476,22 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="D173" t="s">
         <v>368</v>
       </c>
       <c r="E173" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I173" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,19 +7502,19 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="D174" t="s">
         <v>369</v>
       </c>
       <c r="E174" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,19 +7525,19 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="D175" t="s">
         <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7419,22 +7548,22 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="D176" t="s">
         <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I176" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,22 +7574,22 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="D177" t="s">
         <v>372</v>
       </c>
       <c r="E177" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F177">
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I177" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7471,22 +7600,22 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="D178" t="s">
         <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I178" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,19 +7626,19 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="D179" t="s">
         <v>374</v>
       </c>
       <c r="E179" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7520,22 +7649,22 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="D180" t="s">
         <v>375</v>
       </c>
       <c r="E180" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F180">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I180" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,19 +7675,19 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
         <v>376</v>
       </c>
       <c r="E181" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7569,19 +7698,19 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="D182" t="s">
         <v>377</v>
       </c>
       <c r="E182" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7592,22 +7721,22 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D183" t="s">
         <v>378</v>
       </c>
       <c r="E183" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I183" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7618,19 +7747,19 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="D184" t="s">
         <v>379</v>
       </c>
       <c r="E184" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7641,19 +7770,19 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="D185" t="s">
         <v>380</v>
       </c>
       <c r="E185" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7664,22 +7793,22 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="D186" t="s">
         <v>381</v>
       </c>
       <c r="E186" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I186" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7690,19 +7819,19 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="D187" t="s">
         <v>382</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7713,19 +7842,19 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="D188" t="s">
         <v>383</v>
       </c>
       <c r="E188" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,19 +7865,19 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="D189" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E189" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F189">
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H189" t="s">
         <v>187</v>
@@ -7762,19 +7891,19 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
       <c r="D190" t="s">
         <v>384</v>
       </c>
       <c r="E190" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H190" t="s">
         <v>187</v>
@@ -7788,22 +7917,22 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="D191" t="s">
         <v>325</v>
       </c>
       <c r="E191" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I191" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7814,22 +7943,22 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="D192" t="s">
         <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I192" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7840,22 +7969,22 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="D193" t="s">
         <v>327</v>
       </c>
       <c r="E193" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I193" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7866,22 +7995,22 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="D194" t="s">
         <v>385</v>
       </c>
       <c r="E194" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I194" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7892,22 +8021,22 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="D195" t="s">
         <v>386</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195" t="s">
+        <v>668</v>
+      </c>
+      <c r="I195" t="s">
         <v>727</v>
-      </c>
-      <c r="I195" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7918,22 +8047,22 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>565</v>
       </c>
       <c r="D196" t="s">
         <v>387</v>
       </c>
       <c r="E196" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F196">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I196" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7944,22 +8073,22 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="D197" t="s">
         <v>388</v>
       </c>
       <c r="E197" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I197" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7970,22 +8099,22 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="D198" t="s">
         <v>389</v>
       </c>
       <c r="E198" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I198" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7996,22 +8125,22 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="D199" t="s">
         <v>390</v>
       </c>
       <c r="E199" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I199" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,22 +8151,22 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="D200" t="s">
         <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I200" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8048,22 +8177,22 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
+        <v>572</v>
       </c>
       <c r="D201" t="s">
         <v>330</v>
       </c>
       <c r="E201" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I201" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8074,22 +8203,22 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="D202" t="s">
         <v>331</v>
       </c>
       <c r="E202" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F202">
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I202" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8100,22 +8229,22 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="D203" t="s">
         <v>332</v>
       </c>
       <c r="E203" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I203" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8126,22 +8255,22 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
       <c r="D204" t="s">
         <v>392</v>
       </c>
       <c r="E204" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F204">
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I204" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8152,22 +8281,22 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="D205" t="s">
         <v>334</v>
       </c>
       <c r="E205" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I205" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8178,22 +8307,22 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="D206" t="s">
         <v>335</v>
       </c>
       <c r="E206" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I206" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8204,22 +8333,22 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="D207" t="s">
         <v>336</v>
       </c>
       <c r="E207" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I207" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8230,22 +8359,22 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="D208" t="s">
         <v>337</v>
       </c>
       <c r="E208" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F208">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I208" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8256,22 +8385,22 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="D209" t="s">
         <v>393</v>
       </c>
       <c r="E209" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I209" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8282,22 +8411,22 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D210" t="s">
         <v>394</v>
       </c>
       <c r="E210" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I210" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,22 +8437,22 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D211" t="s">
         <v>395</v>
       </c>
       <c r="E211" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I211" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8334,22 +8463,22 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D212" t="s">
         <v>396</v>
       </c>
       <c r="E212" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I212" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8360,22 +8489,22 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
         <v>397</v>
       </c>
       <c r="E213" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I213" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8386,22 +8515,22 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D214" t="s">
         <v>398</v>
       </c>
       <c r="E214" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I214" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8412,22 +8541,22 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="D215" t="s">
         <v>399</v>
       </c>
       <c r="E215" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I215" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8438,22 +8567,22 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="D216" t="s">
         <v>400</v>
       </c>
       <c r="E216" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I216" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8464,22 +8593,22 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="D217" t="s">
         <v>401</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I217" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8490,19 +8619,19 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>593</v>
       </c>
       <c r="D218" t="s">
         <v>402</v>
       </c>
       <c r="E218" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8513,19 +8642,19 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="D219" t="s">
         <v>353</v>
       </c>
       <c r="E219" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8536,19 +8665,19 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>654</v>
+        <v>595</v>
       </c>
       <c r="D220" t="s">
         <v>403</v>
       </c>
       <c r="E220" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H220" t="s">
         <v>218</v>
@@ -8562,19 +8691,19 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
       <c r="D221" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E221" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H221" t="s">
         <v>218</v>
@@ -8588,19 +8717,19 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="D222" t="s">
         <v>404</v>
       </c>
       <c r="E222" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H222" t="s">
         <v>218</v>
@@ -8611,28 +8740,28 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>826</v>
+        <v>765</v>
       </c>
       <c r="C223" t="s">
-        <v>827</v>
+        <v>766</v>
       </c>
       <c r="D223" t="s">
-        <v>828</v>
+        <v>767</v>
       </c>
       <c r="E223" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H223" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I223" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,25 +8772,25 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
       <c r="D224" t="s">
         <v>356</v>
       </c>
       <c r="E224" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H224" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I224" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8672,22 +8801,22 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>646</v>
+        <v>587</v>
       </c>
       <c r="D225" t="s">
         <v>405</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I225" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8698,19 +8827,19 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="D226" t="s">
         <v>406</v>
       </c>
       <c r="E226" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8721,22 +8850,22 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="D227" t="s">
         <v>407</v>
       </c>
       <c r="E227" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I227" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8747,19 +8876,19 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>743</v>
+        <v>684</v>
       </c>
       <c r="D228" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E228" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8770,19 +8899,19 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
       <c r="D229" t="s">
         <v>408</v>
       </c>
       <c r="E229" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8793,22 +8922,22 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
         <v>409</v>
       </c>
       <c r="E230" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I230" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8819,22 +8948,22 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="D231" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E231" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I231" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8845,22 +8974,22 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="D232" t="s">
         <v>410</v>
       </c>
       <c r="E232" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I232" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8871,19 +9000,19 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="D233" t="s">
         <v>411</v>
       </c>
       <c r="E233" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8894,19 +9023,19 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="D234" t="s">
         <v>412</v>
       </c>
       <c r="E234" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,19 +9046,19 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="D235" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E235" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H235" t="s">
         <v>232</v>
@@ -8943,19 +9072,19 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="D236" t="s">
         <v>413</v>
       </c>
       <c r="E236" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H236" t="s">
         <v>232</v>
@@ -8969,22 +9098,22 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="D237" t="s">
         <v>325</v>
       </c>
       <c r="E237" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I237" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8995,22 +9124,22 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>657</v>
+        <v>598</v>
       </c>
       <c r="D238" t="s">
         <v>326</v>
       </c>
       <c r="E238" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I238" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9021,22 +9150,22 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>658</v>
+        <v>599</v>
       </c>
       <c r="D239" t="s">
         <v>327</v>
       </c>
       <c r="E239" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I239" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9047,22 +9176,22 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="D240" t="s">
         <v>385</v>
       </c>
       <c r="E240" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I240" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9073,22 +9202,22 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="D241" t="s">
         <v>386</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241" t="s">
+        <v>668</v>
+      </c>
+      <c r="I241" t="s">
         <v>727</v>
-      </c>
-      <c r="I241" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,22 +9228,22 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="D242" t="s">
         <v>387</v>
       </c>
       <c r="E242" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I242" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,22 +9254,22 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="D243" t="s">
         <v>388</v>
       </c>
       <c r="E243" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I243" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9151,22 +9280,22 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="D244" t="s">
         <v>389</v>
       </c>
       <c r="E244" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I244" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9177,22 +9306,22 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="D245" t="s">
         <v>390</v>
       </c>
       <c r="E245" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I245" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9203,22 +9332,22 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>663</v>
+        <v>604</v>
       </c>
       <c r="D246" t="s">
         <v>391</v>
       </c>
       <c r="E246" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I246" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,22 +9358,22 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="D247" t="s">
         <v>330</v>
       </c>
       <c r="E247" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I247" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,22 +9384,22 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="D248" t="s">
         <v>331</v>
       </c>
       <c r="E248" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I248" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9281,22 +9410,22 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>666</v>
+        <v>607</v>
       </c>
       <c r="D249" t="s">
         <v>332</v>
       </c>
       <c r="E249" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I249" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9307,22 +9436,22 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>745</v>
+        <v>686</v>
       </c>
       <c r="D250" t="s">
         <v>392</v>
       </c>
       <c r="E250" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I250" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9333,22 +9462,22 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
       <c r="D251" t="s">
         <v>334</v>
       </c>
       <c r="E251" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F251">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I251" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9359,22 +9488,22 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="D252" t="s">
         <v>335</v>
       </c>
       <c r="E252" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I252" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9385,22 +9514,22 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="D253" t="s">
         <v>336</v>
       </c>
       <c r="E253" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F253">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I253" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9411,22 +9540,22 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="D254" t="s">
         <v>337</v>
       </c>
       <c r="E254" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I254" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9437,22 +9566,22 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="D255" t="s">
         <v>393</v>
       </c>
       <c r="E255" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I255" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,22 +9592,22 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="D256" t="s">
         <v>394</v>
       </c>
       <c r="E256" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I256" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,22 +9618,22 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D257" t="s">
         <v>395</v>
       </c>
       <c r="E257" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I257" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9515,22 +9644,22 @@
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D258" t="s">
         <v>396</v>
       </c>
       <c r="E258" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I258" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,22 +9670,22 @@
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>680</v>
+        <v>621</v>
       </c>
       <c r="D259" t="s">
         <v>397</v>
       </c>
       <c r="E259" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I259" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,22 +9696,22 @@
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D260" t="s">
         <v>398</v>
       </c>
       <c r="E260" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I260" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9593,22 +9722,22 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D261" t="s">
         <v>399</v>
       </c>
       <c r="E261" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I261" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,22 +9748,22 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="D262" t="s">
         <v>400</v>
       </c>
       <c r="E262" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F262">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I262" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9645,22 +9774,22 @@
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="D263" t="s">
         <v>401</v>
       </c>
       <c r="E263" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F263">
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I263" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9671,19 +9800,19 @@
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="D264" t="s">
         <v>402</v>
       </c>
       <c r="E264" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9694,19 +9823,19 @@
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="D265" t="s">
         <v>353</v>
       </c>
       <c r="E265" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9717,19 +9846,19 @@
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>685</v>
+        <v>626</v>
       </c>
       <c r="D266" t="s">
         <v>403</v>
       </c>
       <c r="E266" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H266" t="s">
         <v>263</v>
@@ -9743,19 +9872,19 @@
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>686</v>
+        <v>627</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E267" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H267" t="s">
         <v>263</v>
@@ -9769,19 +9898,19 @@
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>687</v>
+        <v>628</v>
       </c>
       <c r="D268" t="s">
         <v>404</v>
       </c>
       <c r="E268" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H268" t="s">
         <v>263</v>
@@ -9792,28 +9921,28 @@
         <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>831</v>
+        <v>770</v>
       </c>
       <c r="C269" t="s">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="D269" t="s">
-        <v>833</v>
+        <v>772</v>
       </c>
       <c r="E269" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H269" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I269" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9824,25 +9953,25 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="D270" t="s">
         <v>356</v>
       </c>
       <c r="E270" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H270" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I270" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,22 +9982,22 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>689</v>
+        <v>630</v>
       </c>
       <c r="D271" t="s">
         <v>405</v>
       </c>
       <c r="E271" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I271" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9879,19 +10008,19 @@
         <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>746</v>
+        <v>687</v>
       </c>
       <c r="D272" t="s">
         <v>406</v>
       </c>
       <c r="E272" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F272">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9902,22 +10031,22 @@
         <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="D273" t="s">
         <v>407</v>
       </c>
       <c r="E273" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I273" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9928,19 +10057,19 @@
         <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>748</v>
+        <v>689</v>
       </c>
       <c r="D274" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E274" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9951,19 +10080,19 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>749</v>
+        <v>690</v>
       </c>
       <c r="D275" t="s">
         <v>408</v>
       </c>
       <c r="E275" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9974,22 +10103,22 @@
         <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="D276" t="s">
         <v>409</v>
       </c>
       <c r="E276" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I276" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10000,22 +10129,22 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="D277" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E277" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F277">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I277" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10026,22 +10155,22 @@
         <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="D278" t="s">
         <v>410</v>
       </c>
       <c r="E278" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F278">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I278" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10052,19 +10181,19 @@
         <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="D279" t="s">
         <v>411</v>
       </c>
       <c r="E279" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10075,19 +10204,19 @@
         <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="D280" t="s">
         <v>412</v>
       </c>
       <c r="E280" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10098,19 +10227,19 @@
         <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>690</v>
+        <v>631</v>
       </c>
       <c r="D281" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E281" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H281" t="s">
         <v>277</v>
@@ -10124,19 +10253,19 @@
         <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>691</v>
+        <v>632</v>
       </c>
       <c r="D282" t="s">
         <v>413</v>
       </c>
       <c r="E282" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H282" t="s">
         <v>277</v>
@@ -10150,22 +10279,22 @@
         <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="D283" t="s">
         <v>325</v>
       </c>
       <c r="E283" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I283" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10176,22 +10305,22 @@
         <v>281</v>
       </c>
       <c r="C284" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="D284" t="s">
         <v>326</v>
       </c>
       <c r="E284" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I284" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,22 +10331,22 @@
         <v>282</v>
       </c>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D285" t="s">
         <v>327</v>
       </c>
       <c r="E285" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I285" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10228,22 +10357,22 @@
         <v>283</v>
       </c>
       <c r="C286" t="s">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="D286" t="s">
         <v>385</v>
       </c>
       <c r="E286" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I286" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10254,22 +10383,22 @@
         <v>284</v>
       </c>
       <c r="C287" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="D287" t="s">
         <v>386</v>
       </c>
       <c r="E287" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287" t="s">
+        <v>668</v>
+      </c>
+      <c r="I287" t="s">
         <v>727</v>
-      </c>
-      <c r="I287" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10280,22 +10409,22 @@
         <v>285</v>
       </c>
       <c r="C288" t="s">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="D288" t="s">
         <v>387</v>
       </c>
       <c r="E288" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I288" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10306,22 +10435,22 @@
         <v>286</v>
       </c>
       <c r="C289" t="s">
-        <v>711</v>
+        <v>652</v>
       </c>
       <c r="D289" t="s">
         <v>388</v>
       </c>
       <c r="E289" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I289" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10332,22 +10461,22 @@
         <v>287</v>
       </c>
       <c r="C290" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="D290" t="s">
         <v>389</v>
       </c>
       <c r="E290" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I290" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10358,22 +10487,22 @@
         <v>288</v>
       </c>
       <c r="C291" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="D291" t="s">
         <v>390</v>
       </c>
       <c r="E291" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F291">
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I291" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10384,22 +10513,22 @@
         <v>289</v>
       </c>
       <c r="C292" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="D292" t="s">
         <v>391</v>
       </c>
       <c r="E292" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F292">
         <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I292" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10410,22 +10539,22 @@
         <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>714</v>
+        <v>655</v>
       </c>
       <c r="D293" t="s">
         <v>330</v>
       </c>
       <c r="E293" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I293" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10436,22 +10565,22 @@
         <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>693</v>
+        <v>634</v>
       </c>
       <c r="D294" t="s">
         <v>331</v>
       </c>
       <c r="E294" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F294">
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I294" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10462,22 +10591,22 @@
         <v>292</v>
       </c>
       <c r="C295" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="D295" t="s">
         <v>332</v>
       </c>
       <c r="E295" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F295">
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I295" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10488,22 +10617,22 @@
         <v>293</v>
       </c>
       <c r="C296" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="D296" t="s">
         <v>392</v>
       </c>
       <c r="E296" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F296">
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I296" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10514,22 +10643,22 @@
         <v>294</v>
       </c>
       <c r="C297" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="D297" t="s">
         <v>334</v>
       </c>
       <c r="E297" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I297" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10540,22 +10669,22 @@
         <v>295</v>
       </c>
       <c r="C298" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="D298" t="s">
         <v>335</v>
       </c>
       <c r="E298" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I298" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10566,22 +10695,22 @@
         <v>296</v>
       </c>
       <c r="C299" t="s">
-        <v>718</v>
+        <v>659</v>
       </c>
       <c r="D299" t="s">
         <v>336</v>
       </c>
       <c r="E299" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I299" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10592,22 +10721,22 @@
         <v>297</v>
       </c>
       <c r="C300" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="D300" t="s">
         <v>337</v>
       </c>
       <c r="E300" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I300" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,22 +10747,22 @@
         <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>720</v>
+        <v>661</v>
       </c>
       <c r="D301" t="s">
         <v>393</v>
       </c>
       <c r="E301" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I301" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10644,22 +10773,22 @@
         <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D302" t="s">
         <v>394</v>
       </c>
       <c r="E302" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I302" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10670,22 +10799,22 @@
         <v>300</v>
       </c>
       <c r="C303" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D303" t="s">
         <v>395</v>
       </c>
       <c r="E303" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I303" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10696,22 +10825,22 @@
         <v>301</v>
       </c>
       <c r="C304" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D304" t="s">
         <v>396</v>
       </c>
       <c r="E304" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I304" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10722,22 +10851,22 @@
         <v>302</v>
       </c>
       <c r="C305" t="s">
-        <v>721</v>
+        <v>662</v>
       </c>
       <c r="D305" t="s">
         <v>397</v>
       </c>
       <c r="E305" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I305" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10748,22 +10877,22 @@
         <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D306" t="s">
         <v>398</v>
       </c>
       <c r="E306" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I306" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,22 +10903,22 @@
         <v>304</v>
       </c>
       <c r="C307" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D307" t="s">
         <v>399</v>
       </c>
       <c r="E307" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I307" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10800,22 +10929,22 @@
         <v>305</v>
       </c>
       <c r="C308" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="D308" t="s">
         <v>400</v>
       </c>
       <c r="E308" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F308">
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I308" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10826,22 +10955,22 @@
         <v>306</v>
       </c>
       <c r="C309" t="s">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="D309" t="s">
         <v>401</v>
       </c>
       <c r="E309" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F309">
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I309" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10852,19 +10981,19 @@
         <v>307</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D310" t="s">
         <v>402</v>
       </c>
       <c r="E310" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F310">
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10875,19 +11004,19 @@
         <v>308</v>
       </c>
       <c r="C311" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="D311" t="s">
         <v>353</v>
       </c>
       <c r="E311" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,19 +11027,19 @@
         <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>703</v>
+        <v>644</v>
       </c>
       <c r="D312" t="s">
         <v>403</v>
       </c>
       <c r="E312" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H312" t="s">
         <v>308</v>
@@ -10924,19 +11053,19 @@
         <v>310</v>
       </c>
       <c r="C313" t="s">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="D313" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E313" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H313" t="s">
         <v>308</v>
@@ -10950,19 +11079,19 @@
         <v>311</v>
       </c>
       <c r="C314" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="D314" t="s">
         <v>404</v>
       </c>
       <c r="E314" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H314" t="s">
         <v>308</v>
@@ -10973,28 +11102,28 @@
         <v>2</v>
       </c>
       <c r="B315" t="s">
-        <v>834</v>
+        <v>773</v>
       </c>
       <c r="C315" t="s">
-        <v>835</v>
+        <v>774</v>
       </c>
       <c r="D315" t="s">
-        <v>836</v>
+        <v>775</v>
       </c>
       <c r="E315" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H315" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I315" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11005,25 +11134,25 @@
         <v>312</v>
       </c>
       <c r="C316" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="D316" t="s">
         <v>356</v>
       </c>
       <c r="E316" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H316" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I316" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11034,22 +11163,22 @@
         <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>723</v>
+        <v>664</v>
       </c>
       <c r="D317" t="s">
         <v>405</v>
       </c>
       <c r="E317" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I317" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11060,19 +11189,19 @@
         <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="D318" t="s">
         <v>406</v>
       </c>
       <c r="E318" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F318">
         <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11083,22 +11212,22 @@
         <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>752</v>
+        <v>693</v>
       </c>
       <c r="D319" t="s">
         <v>407</v>
       </c>
       <c r="E319" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F319">
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I319" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11109,19 +11238,19 @@
         <v>316</v>
       </c>
       <c r="C320" t="s">
-        <v>753</v>
+        <v>694</v>
       </c>
       <c r="D320" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E320" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F320">
         <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11132,19 +11261,19 @@
         <v>317</v>
       </c>
       <c r="C321" t="s">
-        <v>754</v>
+        <v>695</v>
       </c>
       <c r="D321" t="s">
         <v>408</v>
       </c>
       <c r="E321" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F321">
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11155,22 +11284,22 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="D322" t="s">
         <v>409</v>
       </c>
       <c r="E322" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F322">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I322" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11181,22 +11310,22 @@
         <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>724</v>
+        <v>665</v>
       </c>
       <c r="D323" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E323" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F323">
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I323" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11207,22 +11336,22 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>725</v>
+        <v>666</v>
       </c>
       <c r="D324" t="s">
         <v>410</v>
       </c>
       <c r="E324" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F324">
         <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I324" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11233,19 +11362,19 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="D325" t="s">
         <v>411</v>
       </c>
       <c r="E325" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F325">
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,19 +11385,19 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>726</v>
+        <v>667</v>
       </c>
       <c r="D326" t="s">
         <v>412</v>
       </c>
       <c r="E326" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F326">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11279,19 +11408,19 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="D327" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E327" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H327" t="s">
         <v>322</v>
@@ -11305,19 +11434,19 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>707</v>
+        <v>648</v>
       </c>
       <c r="D328" t="s">
         <v>413</v>
       </c>
       <c r="E328" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F328">
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H328" t="s">
         <v>322</v>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Project\EPAR\Working Files\RA Working Folders\Sam\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\netid.washington.edu\wfs\EvansEPAR\Project\EPAR\Working Files\RA Working Folders\Sam\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DB3AE-6865-4361-9D20-85ACD29383C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A16D88-A8F2-45DC-B74C-24DA23577217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="877">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -1294,66 +1294,6 @@
     <t>Contract coverage for chickens</t>
   </si>
   <si>
-    <t>Number of chickens</t>
-  </si>
-  <si>
-    <t>Number of chicken births</t>
-  </si>
-  <si>
-    <t>Number of new chickens</t>
-  </si>
-  <si>
-    <t>Number of chicken deaths</t>
-  </si>
-  <si>
-    <t>Number of chickens sold (live)</t>
-  </si>
-  <si>
-    <t>Price of last chicken sale (KHR/kg)</t>
-  </si>
-  <si>
-    <t>Number of chickens stolen</t>
-  </si>
-  <si>
-    <t>Number of chickens gifted</t>
-  </si>
-  <si>
-    <t>Number of chickens slaughtered</t>
-  </si>
-  <si>
-    <t>Number of chickens vaccinated</t>
-  </si>
-  <si>
-    <t>Number of chicken egg-laying months</t>
-  </si>
-  <si>
-    <t>Number of chicken egg-laying days per month</t>
-  </si>
-  <si>
-    <t>Average number of chicken eggs collected per day</t>
-  </si>
-  <si>
-    <t>Price of chicken eggs sold (KHR)</t>
-  </si>
-  <si>
-    <t>Chickens raised for sale (Y/N)</t>
-  </si>
-  <si>
-    <t>Chickens raised for gift (Y/N)</t>
-  </si>
-  <si>
-    <t>Chickens raised for slaughter (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs collected (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs gifted (Y/N)</t>
-  </si>
-  <si>
     <t>Average number of duck eggs collected per day</t>
   </si>
   <si>
@@ -1420,123 +1360,6 @@
     <t>Pigs raised for milk (Y/N)</t>
   </si>
   <si>
-    <t>Chicken eggs consumed (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken eggs cultivated for other reason (Y/N)</t>
-  </si>
-  <si>
-    <t>Chicken flock growth</t>
-  </si>
-  <si>
-    <t>Chicken flock reduction</t>
-  </si>
-  <si>
-    <t>Chicken flock net growth (reduction)</t>
-  </si>
-  <si>
-    <t>Chicken flock size 2019</t>
-  </si>
-  <si>
-    <t>Chicken flock growth, %</t>
-  </si>
-  <si>
-    <t>Chicken flock reduction, %</t>
-  </si>
-  <si>
-    <t>Chicken flock net growth (reduction), %</t>
-  </si>
-  <si>
-    <t>Chickens vaccinated, %</t>
-  </si>
-  <si>
-    <t>Chickens vaccinated (Y/N)</t>
-  </si>
-  <si>
-    <t>Total chicken egg production</t>
-  </si>
-  <si>
-    <t>Total chicken egg production, annualized</t>
-  </si>
-  <si>
-    <t>Chicken eggs lost, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs kept, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs kept</t>
-  </si>
-  <si>
-    <t>Chicken eggs consumed, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs consumed</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold, %</t>
-  </si>
-  <si>
-    <t>Chicken eggs sold</t>
-  </si>
-  <si>
-    <t>Median price of chicken eggs sold in province</t>
-  </si>
-  <si>
-    <t>Chicken egg production value (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg consumption value (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg revenue from sales (KHR)</t>
-  </si>
-  <si>
-    <t>Chicken egg price (KHR/egg), observed</t>
-  </si>
-  <si>
-    <t>Chicken egg price (KHR/egg), imputed where missing</t>
-  </si>
-  <si>
-    <t>Median national price of chicken eggs (KHR/egg), observed</t>
-  </si>
-  <si>
-    <t>Median price of chickens sold in province (KHR/kg)</t>
-  </si>
-  <si>
-    <t>Chicken live-sale price (KHR/kg), observed</t>
-  </si>
-  <si>
-    <t>Chicken live-sale price (KHR/kg), imputed where missing</t>
-  </si>
-  <si>
-    <t>Median national price of chickens sold (KHR/kg), observed</t>
-  </si>
-  <si>
-    <t>Chicken price per live sale (KHR)</t>
-  </si>
-  <si>
-    <t>Revenue from chicken sales (KHR)</t>
-  </si>
-  <si>
-    <t>Price of slaughtered chicken (KHR/bird)</t>
-  </si>
-  <si>
-    <t>Value of slaughtered chicken (KHR)</t>
-  </si>
-  <si>
-    <t>Total value of chicken production (KHR)</t>
-  </si>
-  <si>
-    <t>Estimated area for raising chickens</t>
-  </si>
-  <si>
-    <t>Chicken productivity (KHR/Ha)</t>
-  </si>
-  <si>
-    <t>Chicken yield (Headcount/Ha)</t>
-  </si>
-  <si>
     <t>Duck feeding practice</t>
   </si>
   <si>
@@ -2467,12 +2290,6 @@
     <t>mortality_rt_Chickens</t>
   </si>
   <si>
-    <t>Chicken mortality rate, %</t>
-  </si>
-  <si>
-    <t>Number of chicken deaths, share of total flock over survey timeframe, %</t>
-  </si>
-  <si>
     <t>S4_Q15a, S4_Q15b, S4_Q14, S4_Q15c</t>
   </si>
   <si>
@@ -2531,6 +2348,309 @@
   </si>
   <si>
     <t>Number of pig deaths, share of total herd over survey timeframe, %</t>
+  </si>
+  <si>
+    <t>Live Chickens Sold</t>
+  </si>
+  <si>
+    <t>Chicken Births</t>
+  </si>
+  <si>
+    <t>Chicken Deaths</t>
+  </si>
+  <si>
+    <t>New Chickens</t>
+  </si>
+  <si>
+    <t>(KHR/kg)</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price</t>
+  </si>
+  <si>
+    <t>Chickens Stolen</t>
+  </si>
+  <si>
+    <t>Chickens Gifted</t>
+  </si>
+  <si>
+    <t>Chickens Slaughtered</t>
+  </si>
+  <si>
+    <t>Number of Chickens</t>
+  </si>
+  <si>
+    <t>Chickens Vaccinated</t>
+  </si>
+  <si>
+    <t>Chicken Egg-Laying Months</t>
+  </si>
+  <si>
+    <t>Births</t>
+  </si>
+  <si>
+    <t>Bought, received, or exchanged</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Stolen</t>
+  </si>
+  <si>
+    <t>Given away as a gift</t>
+  </si>
+  <si>
+    <t>Slaughtered</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Eggs collected per day (avg)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Chicken Egg Price</t>
+  </si>
+  <si>
+    <t>(KHR)</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Sale</t>
+  </si>
+  <si>
+    <t>(Y/N)</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Gift</t>
+  </si>
+  <si>
+    <t>Chickens Raised for Slaughter</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Collected</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Sold</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Consumed</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Gifted</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Growth</t>
+  </si>
+  <si>
+    <t>Gross increase in headcount</t>
+  </si>
+  <si>
+    <t>Gross decrease in headcount</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Decline</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Net Change</t>
+  </si>
+  <si>
+    <t>Net change in headcount</t>
+  </si>
+  <si>
+    <t>Chicken Headcount 2019</t>
+  </si>
+  <si>
+    <t>Headcount, start of survey</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Growth, %</t>
+  </si>
+  <si>
+    <t>Gross increase in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Decline, %</t>
+  </si>
+  <si>
+    <t>Gross decrease in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Headcount Net Change, %</t>
+  </si>
+  <si>
+    <t>Net change in headcount, %</t>
+  </si>
+  <si>
+    <t>Chicken Mortality, %</t>
+  </si>
+  <si>
+    <t>Deaths, %</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination, %</t>
+  </si>
+  <si>
+    <t>Vaccinations, %</t>
+  </si>
+  <si>
+    <t>Produced and collected</t>
+  </si>
+  <si>
+    <t>Chicken Egg Production</t>
+  </si>
+  <si>
+    <t>Chicken Egg Production, Annual</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Lost, %</t>
+  </si>
+  <si>
+    <t>Eggs lost or broken, %</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Kept, %</t>
+  </si>
+  <si>
+    <t>Eggs not lost or broken, %</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Kept</t>
+  </si>
+  <si>
+    <t>Eggs not lost or broken</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Consumed, %</t>
+  </si>
+  <si>
+    <t>Eggs consumed by holding</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Sold, %</t>
+  </si>
+  <si>
+    <t>Eggs sold by holding</t>
+  </si>
+  <si>
+    <t>Eggs sold by holding, %</t>
+  </si>
+  <si>
+    <t>(KHR/egg)</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Revenue</t>
+  </si>
+  <si>
+    <t>Chicken Sale Revenue</t>
+  </si>
+  <si>
+    <t>Chicken Slaughter Price</t>
+  </si>
+  <si>
+    <t>Chicken Slaughter Value</t>
+  </si>
+  <si>
+    <t>Chicken Production Value</t>
+  </si>
+  <si>
+    <t>Area for Raising Chickens</t>
+  </si>
+  <si>
+    <t>Chicken Productivity</t>
+  </si>
+  <si>
+    <t>(KHR/Ha)</t>
+  </si>
+  <si>
+    <t>(Chickens/Ha)</t>
+  </si>
+  <si>
+    <t>Chicken Yield</t>
+  </si>
+  <si>
+    <t>Months annually eggs collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days per month eggs collected </t>
+  </si>
+  <si>
+    <t>Price of last sale (KHR/kg)</t>
+  </si>
+  <si>
+    <t>Chicken Egg-Laying Days per Month</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Collected per Day (Average)</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Cultivated, Other Reason</t>
+  </si>
+  <si>
+    <t>Annualized, if production each day</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price, Province Median</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price, Observed</t>
+  </si>
+  <si>
+    <t>(KHR/egg) observed in survey</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price, Imputed</t>
+  </si>
+  <si>
+    <t>(KHR/egg) imputed when missing from survey</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Price, National Median</t>
+  </si>
+  <si>
+    <t>Chicken Egg Value, Produced</t>
+  </si>
+  <si>
+    <t>Chicken Egg Value, Consumed</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price, Province Median</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price, Observed</t>
+  </si>
+  <si>
+    <t>(KHR/kg) observed in survey</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price, Imputed</t>
+  </si>
+  <si>
+    <t>(KHR/kg) imputed when missing from survey</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price, National Median</t>
+  </si>
+  <si>
+    <t>(KHR/chicken) imputed using standard weight</t>
+  </si>
+  <si>
+    <t>(KHR) imputed price/head, live sales</t>
+  </si>
+  <si>
+    <t>(KHR/chicken), price equiv to live sale</t>
+  </si>
+  <si>
+    <t>(KHR/chicken), revenue &amp; consumption</t>
+  </si>
+  <si>
+    <t>(KHR) eggs, slaughter, live sales</t>
   </si>
 </sst>
 </file>
@@ -2583,9 +2703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2623,7 +2743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2729,7 +2849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2871,7 +2991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2882,10 +3002,10 @@
   <dimension ref="A1:J328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +3049,7 @@
         <v>420</v>
       </c>
       <c r="J1" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,16 +3066,16 @@
         <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I2" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2972,16 +3092,16 @@
         <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I3" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2998,16 +3118,16 @@
         <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,25 +3138,25 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>785</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>797</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I5" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3047,22 +3167,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>777</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>788</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I6" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3073,22 +3193,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>779</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>789</v>
       </c>
       <c r="E7" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I7" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,22 +3219,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>778</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>790</v>
       </c>
       <c r="E8" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I8" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,25 +3245,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>776</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>791</v>
       </c>
       <c r="E9" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I9" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
       <c r="J9" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,22 +3274,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>781</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>853</v>
       </c>
       <c r="E10" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,22 +3300,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>782</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>792</v>
       </c>
       <c r="E11" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I11" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,22 +3326,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>783</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>793</v>
       </c>
       <c r="E12" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I12" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,22 +3352,22 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>794</v>
       </c>
       <c r="E13" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I13" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3258,22 +3378,22 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>786</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>795</v>
       </c>
       <c r="E14" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I14" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,22 +3404,22 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>787</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>851</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,22 +3430,22 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>854</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>852</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3336,25 +3456,25 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>436</v>
+        <v>855</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>796</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I17" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
       <c r="J17" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3365,22 +3485,22 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>798</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>799</v>
       </c>
       <c r="E18" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I18" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3391,22 +3511,22 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="E19" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I19" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,22 +3537,22 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>802</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="E20" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I20" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,22 +3563,22 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>803</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="E21" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I21" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,22 +3589,22 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>804</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>801</v>
       </c>
       <c r="E22" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I22" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,22 +3615,22 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>805</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>801</v>
       </c>
       <c r="E23" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I23" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,22 +3641,22 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>806</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>801</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I24" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,22 +3667,22 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>801</v>
       </c>
       <c r="E25" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I25" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3573,22 +3693,22 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>856</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>801</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I26" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,22 +3719,22 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>808</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>809</v>
       </c>
       <c r="E27" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I27" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,22 +3745,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>811</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>810</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I28" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3651,25 +3771,25 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>812</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>813</v>
       </c>
       <c r="E29" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I29" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="J29" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3680,22 +3800,22 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>814</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>815</v>
       </c>
       <c r="E30" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I30" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,25 +3826,25 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>816</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>817</v>
       </c>
       <c r="E31" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3735,25 +3855,25 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>818</v>
       </c>
       <c r="D32" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="E32" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,25 +3884,25 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>820</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>821</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3790,28 +3910,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>814</v>
+        <v>755</v>
       </c>
       <c r="C34" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="D34" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="E34" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H34" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I34" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,25 +3942,25 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>824</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>825</v>
       </c>
       <c r="E35" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H35" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I35" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,22 +3971,22 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>786</v>
       </c>
       <c r="D36" t="s">
-        <v>357</v>
+        <v>801</v>
       </c>
       <c r="E36" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I36" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3877,22 +3997,22 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>827</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>826</v>
       </c>
       <c r="E37" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I37" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,22 +4023,22 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>828</v>
       </c>
       <c r="D38" t="s">
-        <v>359</v>
+        <v>857</v>
       </c>
       <c r="E38" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I38" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,22 +4049,22 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>829</v>
       </c>
       <c r="D39" t="s">
-        <v>360</v>
+        <v>830</v>
       </c>
       <c r="E39" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I39" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,22 +4075,22 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>831</v>
       </c>
       <c r="D40" t="s">
-        <v>361</v>
+        <v>832</v>
       </c>
       <c r="E40" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I40" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,19 +4101,19 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>833</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>834</v>
       </c>
       <c r="E41" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,22 +4124,22 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>835</v>
       </c>
       <c r="D42" t="s">
         <v>363</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I42" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4030,19 +4150,19 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>483</v>
+        <v>806</v>
       </c>
       <c r="D43" t="s">
-        <v>364</v>
+        <v>836</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,22 +4173,22 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>484</v>
+        <v>837</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="E44" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I44" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,19 +4199,19 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>485</v>
+        <v>805</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
+        <v>838</v>
       </c>
       <c r="E45" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4102,19 +4222,19 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>858</v>
       </c>
       <c r="D46" t="s">
-        <v>367</v>
+        <v>840</v>
       </c>
       <c r="E46" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,22 +4245,22 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>490</v>
+        <v>859</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>860</v>
       </c>
       <c r="E47" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I47" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,19 +4271,19 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>491</v>
+        <v>861</v>
       </c>
       <c r="D48" t="s">
-        <v>369</v>
+        <v>862</v>
       </c>
       <c r="E48" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,19 +4294,19 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>492</v>
+        <v>863</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>840</v>
       </c>
       <c r="E49" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,22 +4317,22 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>864</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>799</v>
       </c>
       <c r="E50" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I50" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,22 +4343,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>865</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>799</v>
       </c>
       <c r="E51" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I51" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,22 +4369,22 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>841</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>799</v>
       </c>
       <c r="E52" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I52" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,19 +4395,19 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>493</v>
+        <v>866</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>780</v>
       </c>
       <c r="E53" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,22 +4418,22 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>494</v>
+        <v>867</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>868</v>
       </c>
       <c r="E54" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I54" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,19 +4444,19 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>495</v>
+        <v>869</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>870</v>
       </c>
       <c r="E55" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4347,19 +4467,19 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>871</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>780</v>
       </c>
       <c r="E56" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,22 +4490,22 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>497</v>
+        <v>781</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>872</v>
       </c>
       <c r="E57" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I57" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,19 +4516,19 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>842</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>873</v>
       </c>
       <c r="E58" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,19 +4539,19 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>499</v>
+        <v>843</v>
       </c>
       <c r="D59" t="s">
-        <v>380</v>
+        <v>874</v>
       </c>
       <c r="E59" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,22 +4562,22 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>500</v>
+        <v>844</v>
       </c>
       <c r="D60" t="s">
-        <v>381</v>
+        <v>875</v>
       </c>
       <c r="E60" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,19 +4588,19 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>501</v>
+        <v>845</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>876</v>
       </c>
       <c r="E61" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4491,19 +4611,19 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>502</v>
+        <v>846</v>
       </c>
       <c r="D62" t="s">
         <v>383</v>
       </c>
       <c r="E62" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,19 +4634,19 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>503</v>
+        <v>847</v>
       </c>
       <c r="D63" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="E63" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H63" t="s">
         <v>63</v>
@@ -4540,19 +4660,19 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>850</v>
       </c>
       <c r="D64" t="s">
-        <v>384</v>
+        <v>849</v>
       </c>
       <c r="E64" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H64" t="s">
         <v>63</v>
@@ -4566,22 +4686,22 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="D65" t="s">
         <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I65" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,22 +4712,22 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="D66" t="s">
         <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I66" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,22 +4738,22 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s">
         <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I67" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,22 +4764,22 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I68" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4670,22 +4790,22 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s">
         <v>329</v>
       </c>
       <c r="E69" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I69" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4696,22 +4816,22 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="D70" t="s">
         <v>330</v>
       </c>
       <c r="E70" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I70" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4722,22 +4842,22 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="D71" t="s">
         <v>331</v>
       </c>
       <c r="E71" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I71" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,22 +4868,22 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="D72" t="s">
         <v>332</v>
       </c>
       <c r="E72" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I72" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,22 +4894,22 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>483</v>
       </c>
       <c r="D73" t="s">
         <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I73" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4800,22 +4920,22 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="D74" t="s">
         <v>334</v>
       </c>
       <c r="E74" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I74" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,22 +4946,22 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="D75" t="s">
         <v>335</v>
       </c>
       <c r="E75" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I75" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4852,22 +4972,22 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="D76" t="s">
         <v>336</v>
       </c>
       <c r="E76" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I76" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,22 +4998,22 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="D77" t="s">
         <v>337</v>
       </c>
       <c r="E77" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I77" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,22 +5024,22 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="D78" t="s">
         <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I78" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4930,22 +5050,22 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
         <v>339</v>
       </c>
       <c r="E79" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I79" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4956,22 +5076,22 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D80" t="s">
         <v>340</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I80" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4982,22 +5102,22 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="D81" t="s">
         <v>341</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I81" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,22 +5128,22 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D82" t="s">
         <v>342</v>
       </c>
       <c r="E82" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I82" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,22 +5154,22 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D83" t="s">
         <v>343</v>
       </c>
       <c r="E83" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I83" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5060,22 +5180,22 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D84" t="s">
         <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I84" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5086,22 +5206,22 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I85" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5112,22 +5232,22 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="D86" t="s">
         <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I86" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5138,22 +5258,22 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>449</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I87" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5164,22 +5284,22 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="D88" t="s">
         <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I88" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,22 +5310,22 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="D89" t="s">
         <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I89" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,22 +5336,22 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
         <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I90" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,22 +5362,22 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="D91" t="s">
         <v>351</v>
       </c>
       <c r="E91" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I91" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5268,19 +5388,19 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
         <v>352</v>
       </c>
       <c r="E92" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,22 +5411,22 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>454</v>
       </c>
       <c r="D93" t="s">
         <v>353</v>
       </c>
       <c r="E93" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I93" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5317,25 +5437,25 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="D94" t="s">
         <v>354</v>
       </c>
       <c r="E94" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H94" t="s">
         <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,25 +5466,25 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="D95" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="E95" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H95" t="s">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,25 +5495,25 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="D96" t="s">
         <v>355</v>
       </c>
       <c r="E96" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H96" t="s">
         <v>94</v>
       </c>
       <c r="I96" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5401,28 +5521,28 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>819</v>
+        <v>758</v>
       </c>
       <c r="C97" t="s">
-        <v>820</v>
+        <v>759</v>
       </c>
       <c r="D97" t="s">
-        <v>821</v>
+        <v>760</v>
       </c>
       <c r="E97" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H97" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I97" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,25 +5553,25 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="D98" t="s">
         <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H98" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I98" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,22 +5582,22 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="D99" t="s">
         <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I99" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5488,22 +5608,22 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="D100" t="s">
         <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I100" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,22 +5634,22 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="D101" t="s">
         <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I101" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5540,22 +5660,22 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="D102" t="s">
         <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I102" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,22 +5686,22 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
         <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I103" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5592,19 +5712,19 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="D104" t="s">
         <v>362</v>
       </c>
       <c r="E104" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,22 +5735,22 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
         <v>363</v>
       </c>
       <c r="E105" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I105" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5641,19 +5761,19 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
       <c r="D106" t="s">
         <v>364</v>
       </c>
       <c r="E106" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,22 +5784,22 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="D107" t="s">
         <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I107" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,19 +5810,19 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
         <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,19 +5833,19 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
         <v>367</v>
       </c>
       <c r="E109" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5736,22 +5856,22 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="D110" t="s">
         <v>368</v>
       </c>
       <c r="E110" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I110" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5762,19 +5882,19 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
       </c>
       <c r="E111" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5785,19 +5905,19 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="D112" t="s">
         <v>370</v>
       </c>
       <c r="E112" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5808,22 +5928,22 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="D113" t="s">
         <v>371</v>
       </c>
       <c r="E113" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I113" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,22 +5954,22 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
         <v>372</v>
       </c>
       <c r="E114" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I114" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5860,22 +5980,22 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="D115" t="s">
         <v>373</v>
       </c>
       <c r="E115" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I115" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5886,19 +6006,19 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="D116" t="s">
         <v>374</v>
       </c>
       <c r="E116" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,22 +6029,22 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="D117" t="s">
         <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I117" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,19 +6055,19 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
       <c r="D118" t="s">
         <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5958,19 +6078,19 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="D119" t="s">
         <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,22 +6101,22 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="D120" t="s">
         <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I120" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,19 +6127,19 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="D121" t="s">
         <v>379</v>
       </c>
       <c r="E121" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6030,19 +6150,19 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="D122" t="s">
         <v>380</v>
       </c>
       <c r="E122" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,22 +6173,22 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="D123" t="s">
         <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I123" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,19 +6199,19 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>561</v>
+        <v>502</v>
       </c>
       <c r="D124" t="s">
         <v>382</v>
       </c>
       <c r="E124" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,19 +6222,19 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>562</v>
+        <v>503</v>
       </c>
       <c r="D125" t="s">
         <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6245,19 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="D126" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E126" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H126" t="s">
         <v>125</v>
@@ -6151,19 +6271,19 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="D127" t="s">
         <v>384</v>
       </c>
       <c r="E127" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H127" t="s">
         <v>125</v>
@@ -6177,22 +6297,22 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="D128" t="s">
         <v>325</v>
       </c>
       <c r="E128" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I128" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6203,22 +6323,22 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="D129" t="s">
         <v>326</v>
       </c>
       <c r="E129" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I129" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6229,22 +6349,22 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="D130" t="s">
         <v>327</v>
       </c>
       <c r="E130" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I130" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6255,22 +6375,22 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="D131" t="s">
         <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I131" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,22 +6401,22 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="D132" t="s">
         <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I132" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,22 +6427,22 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="D133" t="s">
         <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I133" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6333,22 +6453,22 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="D134" t="s">
         <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I134" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6359,22 +6479,22 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="D135" t="s">
         <v>332</v>
       </c>
       <c r="E135" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I135" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6385,22 +6505,22 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="D136" t="s">
         <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I136" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,22 +6531,22 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="D137" t="s">
         <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I137" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,22 +6557,22 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="D138" t="s">
         <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I138" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,22 +6583,22 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="D139" t="s">
         <v>336</v>
       </c>
       <c r="E139" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I139" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,22 +6609,22 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>586</v>
+        <v>527</v>
       </c>
       <c r="D140" t="s">
         <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I140" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,22 +6635,22 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="D141" t="s">
         <v>338</v>
       </c>
       <c r="E141" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I141" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6541,22 +6661,22 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="D142" t="s">
         <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I142" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,22 +6687,22 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="D143" t="s">
         <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I143" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,22 +6713,22 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="D144" t="s">
         <v>341</v>
       </c>
       <c r="E144" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I144" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6619,22 +6739,22 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s">
         <v>342</v>
       </c>
       <c r="E145" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I145" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,22 +6765,22 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D146" t="s">
         <v>343</v>
       </c>
       <c r="E146" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I146" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,22 +6791,22 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D147" t="s">
         <v>344</v>
       </c>
       <c r="E147" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I147" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,22 +6817,22 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
       <c r="D148" t="s">
         <v>345</v>
       </c>
       <c r="E148" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I148" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,22 +6843,22 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="D149" t="s">
         <v>346</v>
       </c>
       <c r="E149" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I149" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,22 +6869,22 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="D150" t="s">
         <v>347</v>
       </c>
       <c r="E150" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I150" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,22 +6895,22 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="D151" t="s">
         <v>348</v>
       </c>
       <c r="E151" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I151" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,22 +6921,22 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="D152" t="s">
         <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I152" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,22 +6947,22 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="D153" t="s">
         <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I153" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6853,22 +6973,22 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="D154" t="s">
         <v>351</v>
       </c>
       <c r="E154" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I154" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,19 +6999,19 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>598</v>
+        <v>539</v>
       </c>
       <c r="D155" t="s">
         <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,22 +7022,22 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="D156" t="s">
         <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I156" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6928,25 +7048,25 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="D157" t="s">
         <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H157" t="s">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6957,25 +7077,25 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="D158" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="E158" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H158" t="s">
         <v>156</v>
       </c>
       <c r="I158" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6986,25 +7106,25 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="D159" t="s">
         <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H159" t="s">
         <v>156</v>
       </c>
       <c r="I159" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7012,28 +7132,28 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>822</v>
+        <v>761</v>
       </c>
       <c r="C160" t="s">
-        <v>823</v>
+        <v>762</v>
       </c>
       <c r="D160" t="s">
-        <v>824</v>
+        <v>763</v>
       </c>
       <c r="E160" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H160" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I160" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7044,25 +7164,25 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="D161" t="s">
         <v>356</v>
       </c>
       <c r="E161" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H161" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I161" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7073,22 +7193,22 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="D162" t="s">
         <v>357</v>
       </c>
       <c r="E162" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I162" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,22 +7219,22 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="D163" t="s">
         <v>358</v>
       </c>
       <c r="E163" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I163" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7125,22 +7245,22 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="D164" t="s">
         <v>359</v>
       </c>
       <c r="E164" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I164" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -7151,22 +7271,22 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="D165" t="s">
         <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I165" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7177,22 +7297,22 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="D166" t="s">
         <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I166" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7203,19 +7323,19 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="D167" t="s">
         <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7226,22 +7346,22 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="D168" t="s">
         <v>363</v>
       </c>
       <c r="E168" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I168" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7252,19 +7372,19 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="D169" t="s">
         <v>364</v>
       </c>
       <c r="E169" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,22 +7395,22 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="D170" t="s">
         <v>365</v>
       </c>
       <c r="E170" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="I170" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,19 +7421,19 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="D171" t="s">
         <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,19 +7444,19 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="D172" t="s">
         <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,22 +7467,22 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="D173" t="s">
         <v>368</v>
       </c>
       <c r="E173" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="I173" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,19 +7493,19 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="D174" t="s">
         <v>369</v>
       </c>
       <c r="E174" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,19 +7516,19 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="D175" t="s">
         <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7419,22 +7539,22 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="D176" t="s">
         <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I176" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,22 +7565,22 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="D177" t="s">
         <v>372</v>
       </c>
       <c r="E177" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F177">
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I177" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7471,22 +7591,22 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="D178" t="s">
         <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I178" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,19 +7617,19 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="D179" t="s">
         <v>374</v>
       </c>
       <c r="E179" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7520,22 +7640,22 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="D180" t="s">
         <v>375</v>
       </c>
       <c r="E180" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F180">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="I180" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,19 +7666,19 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
         <v>376</v>
       </c>
       <c r="E181" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7569,19 +7689,19 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="D182" t="s">
         <v>377</v>
       </c>
       <c r="E182" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7592,22 +7712,22 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D183" t="s">
         <v>378</v>
       </c>
       <c r="E183" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I183" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7618,19 +7738,19 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="D184" t="s">
         <v>379</v>
       </c>
       <c r="E184" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7641,19 +7761,19 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="D185" t="s">
         <v>380</v>
       </c>
       <c r="E185" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7664,22 +7784,22 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="D186" t="s">
         <v>381</v>
       </c>
       <c r="E186" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I186" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7690,19 +7810,19 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="D187" t="s">
         <v>382</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7713,19 +7833,19 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="D188" t="s">
         <v>383</v>
       </c>
       <c r="E188" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,19 +7856,19 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="D189" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E189" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F189">
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H189" t="s">
         <v>187</v>
@@ -7762,19 +7882,19 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
       <c r="D190" t="s">
         <v>384</v>
       </c>
       <c r="E190" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H190" t="s">
         <v>187</v>
@@ -7788,22 +7908,22 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="D191" t="s">
         <v>325</v>
       </c>
       <c r="E191" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I191" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7814,22 +7934,22 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="D192" t="s">
         <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I192" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7840,22 +7960,22 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="D193" t="s">
         <v>327</v>
       </c>
       <c r="E193" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I193" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7866,22 +7986,22 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="D194" t="s">
         <v>385</v>
       </c>
       <c r="E194" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I194" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7892,22 +8012,22 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="D195" t="s">
         <v>386</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195" t="s">
+        <v>668</v>
+      </c>
+      <c r="I195" t="s">
         <v>727</v>
-      </c>
-      <c r="I195" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7918,22 +8038,22 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>565</v>
       </c>
       <c r="D196" t="s">
         <v>387</v>
       </c>
       <c r="E196" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F196">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I196" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7944,22 +8064,22 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="D197" t="s">
         <v>388</v>
       </c>
       <c r="E197" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I197" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7970,22 +8090,22 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
       <c r="D198" t="s">
         <v>389</v>
       </c>
       <c r="E198" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I198" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7996,22 +8116,22 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="D199" t="s">
         <v>390</v>
       </c>
       <c r="E199" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I199" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,22 +8142,22 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="D200" t="s">
         <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I200" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8048,22 +8168,22 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
+        <v>572</v>
       </c>
       <c r="D201" t="s">
         <v>330</v>
       </c>
       <c r="E201" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I201" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8074,22 +8194,22 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="D202" t="s">
         <v>331</v>
       </c>
       <c r="E202" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F202">
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I202" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8100,22 +8220,22 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="D203" t="s">
         <v>332</v>
       </c>
       <c r="E203" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I203" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8126,22 +8246,22 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
       <c r="D204" t="s">
         <v>392</v>
       </c>
       <c r="E204" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F204">
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I204" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8152,22 +8272,22 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="D205" t="s">
         <v>334</v>
       </c>
       <c r="E205" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I205" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8178,22 +8298,22 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="D206" t="s">
         <v>335</v>
       </c>
       <c r="E206" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I206" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8204,22 +8324,22 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="D207" t="s">
         <v>336</v>
       </c>
       <c r="E207" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I207" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8230,22 +8350,22 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="D208" t="s">
         <v>337</v>
       </c>
       <c r="E208" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F208">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I208" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8256,22 +8376,22 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="D209" t="s">
         <v>393</v>
       </c>
       <c r="E209" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I209" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8282,22 +8402,22 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D210" t="s">
         <v>394</v>
       </c>
       <c r="E210" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I210" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,22 +8428,22 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D211" t="s">
         <v>395</v>
       </c>
       <c r="E211" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I211" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8334,22 +8454,22 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D212" t="s">
         <v>396</v>
       </c>
       <c r="E212" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I212" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8360,22 +8480,22 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
         <v>397</v>
       </c>
       <c r="E213" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I213" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8386,22 +8506,22 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D214" t="s">
         <v>398</v>
       </c>
       <c r="E214" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I214" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8412,22 +8532,22 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="D215" t="s">
         <v>399</v>
       </c>
       <c r="E215" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I215" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8438,22 +8558,22 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="D216" t="s">
         <v>400</v>
       </c>
       <c r="E216" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I216" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8464,22 +8584,22 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="D217" t="s">
         <v>401</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I217" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8490,19 +8610,19 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>593</v>
       </c>
       <c r="D218" t="s">
         <v>402</v>
       </c>
       <c r="E218" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8513,19 +8633,19 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="D219" t="s">
         <v>353</v>
       </c>
       <c r="E219" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8536,19 +8656,19 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>654</v>
+        <v>595</v>
       </c>
       <c r="D220" t="s">
         <v>403</v>
       </c>
       <c r="E220" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H220" t="s">
         <v>218</v>
@@ -8562,19 +8682,19 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
       <c r="D221" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E221" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H221" t="s">
         <v>218</v>
@@ -8588,19 +8708,19 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="D222" t="s">
         <v>404</v>
       </c>
       <c r="E222" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H222" t="s">
         <v>218</v>
@@ -8611,28 +8731,28 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>826</v>
+        <v>765</v>
       </c>
       <c r="C223" t="s">
-        <v>827</v>
+        <v>766</v>
       </c>
       <c r="D223" t="s">
-        <v>828</v>
+        <v>767</v>
       </c>
       <c r="E223" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H223" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I223" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,25 +8763,25 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
       <c r="D224" t="s">
         <v>356</v>
       </c>
       <c r="E224" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H224" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I224" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8672,22 +8792,22 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>646</v>
+        <v>587</v>
       </c>
       <c r="D225" t="s">
         <v>405</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I225" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8698,19 +8818,19 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="D226" t="s">
         <v>406</v>
       </c>
       <c r="E226" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8721,22 +8841,22 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="D227" t="s">
         <v>407</v>
       </c>
       <c r="E227" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I227" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8747,19 +8867,19 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>743</v>
+        <v>684</v>
       </c>
       <c r="D228" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E228" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8770,19 +8890,19 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
       <c r="D229" t="s">
         <v>408</v>
       </c>
       <c r="E229" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8793,22 +8913,22 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
         <v>409</v>
       </c>
       <c r="E230" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I230" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8819,22 +8939,22 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="D231" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E231" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I231" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8845,22 +8965,22 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="D232" t="s">
         <v>410</v>
       </c>
       <c r="E232" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I232" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8871,19 +8991,19 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="D233" t="s">
         <v>411</v>
       </c>
       <c r="E233" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8894,19 +9014,19 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="D234" t="s">
         <v>412</v>
       </c>
       <c r="E234" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,19 +9037,19 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="D235" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E235" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H235" t="s">
         <v>232</v>
@@ -8943,19 +9063,19 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="D236" t="s">
         <v>413</v>
       </c>
       <c r="E236" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H236" t="s">
         <v>232</v>
@@ -8969,22 +9089,22 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="D237" t="s">
         <v>325</v>
       </c>
       <c r="E237" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I237" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8995,22 +9115,22 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>657</v>
+        <v>598</v>
       </c>
       <c r="D238" t="s">
         <v>326</v>
       </c>
       <c r="E238" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I238" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9021,22 +9141,22 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>658</v>
+        <v>599</v>
       </c>
       <c r="D239" t="s">
         <v>327</v>
       </c>
       <c r="E239" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I239" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9047,22 +9167,22 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="D240" t="s">
         <v>385</v>
       </c>
       <c r="E240" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I240" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9073,22 +9193,22 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="D241" t="s">
         <v>386</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241" t="s">
+        <v>668</v>
+      </c>
+      <c r="I241" t="s">
         <v>727</v>
-      </c>
-      <c r="I241" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,22 +9219,22 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="D242" t="s">
         <v>387</v>
       </c>
       <c r="E242" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I242" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,22 +9245,22 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="D243" t="s">
         <v>388</v>
       </c>
       <c r="E243" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I243" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9151,22 +9271,22 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="D244" t="s">
         <v>389</v>
       </c>
       <c r="E244" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I244" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9177,22 +9297,22 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="D245" t="s">
         <v>390</v>
       </c>
       <c r="E245" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I245" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9203,22 +9323,22 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>663</v>
+        <v>604</v>
       </c>
       <c r="D246" t="s">
         <v>391</v>
       </c>
       <c r="E246" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I246" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,22 +9349,22 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="D247" t="s">
         <v>330</v>
       </c>
       <c r="E247" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I247" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,22 +9375,22 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="D248" t="s">
         <v>331</v>
       </c>
       <c r="E248" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I248" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9281,22 +9401,22 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>666</v>
+        <v>607</v>
       </c>
       <c r="D249" t="s">
         <v>332</v>
       </c>
       <c r="E249" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I249" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9307,22 +9427,22 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>745</v>
+        <v>686</v>
       </c>
       <c r="D250" t="s">
         <v>392</v>
       </c>
       <c r="E250" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I250" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9333,22 +9453,22 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
       <c r="D251" t="s">
         <v>334</v>
       </c>
       <c r="E251" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F251">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I251" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9359,22 +9479,22 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="D252" t="s">
         <v>335</v>
       </c>
       <c r="E252" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I252" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9385,22 +9505,22 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="D253" t="s">
         <v>336</v>
       </c>
       <c r="E253" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F253">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I253" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9411,22 +9531,22 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="D254" t="s">
         <v>337</v>
       </c>
       <c r="E254" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I254" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9437,22 +9557,22 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="D255" t="s">
         <v>393</v>
       </c>
       <c r="E255" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I255" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,22 +9583,22 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="D256" t="s">
         <v>394</v>
       </c>
       <c r="E256" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I256" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,22 +9609,22 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D257" t="s">
         <v>395</v>
       </c>
       <c r="E257" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I257" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9515,22 +9635,22 @@
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D258" t="s">
         <v>396</v>
       </c>
       <c r="E258" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I258" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,22 +9661,22 @@
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>680</v>
+        <v>621</v>
       </c>
       <c r="D259" t="s">
         <v>397</v>
       </c>
       <c r="E259" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I259" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,22 +9687,22 @@
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D260" t="s">
         <v>398</v>
       </c>
       <c r="E260" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I260" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9593,22 +9713,22 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D261" t="s">
         <v>399</v>
       </c>
       <c r="E261" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I261" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,22 +9739,22 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="D262" t="s">
         <v>400</v>
       </c>
       <c r="E262" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F262">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I262" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9645,22 +9765,22 @@
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="D263" t="s">
         <v>401</v>
       </c>
       <c r="E263" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F263">
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I263" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9671,19 +9791,19 @@
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="D264" t="s">
         <v>402</v>
       </c>
       <c r="E264" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9694,19 +9814,19 @@
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="D265" t="s">
         <v>353</v>
       </c>
       <c r="E265" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9717,19 +9837,19 @@
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>685</v>
+        <v>626</v>
       </c>
       <c r="D266" t="s">
         <v>403</v>
       </c>
       <c r="E266" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H266" t="s">
         <v>263</v>
@@ -9743,19 +9863,19 @@
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>686</v>
+        <v>627</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E267" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H267" t="s">
         <v>263</v>
@@ -9769,19 +9889,19 @@
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>687</v>
+        <v>628</v>
       </c>
       <c r="D268" t="s">
         <v>404</v>
       </c>
       <c r="E268" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H268" t="s">
         <v>263</v>
@@ -9792,28 +9912,28 @@
         <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>831</v>
+        <v>770</v>
       </c>
       <c r="C269" t="s">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="D269" t="s">
-        <v>833</v>
+        <v>772</v>
       </c>
       <c r="E269" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H269" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I269" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9824,25 +9944,25 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="D270" t="s">
         <v>356</v>
       </c>
       <c r="E270" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H270" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I270" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,22 +9973,22 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>689</v>
+        <v>630</v>
       </c>
       <c r="D271" t="s">
         <v>405</v>
       </c>
       <c r="E271" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I271" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9879,19 +9999,19 @@
         <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>746</v>
+        <v>687</v>
       </c>
       <c r="D272" t="s">
         <v>406</v>
       </c>
       <c r="E272" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F272">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9902,22 +10022,22 @@
         <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="D273" t="s">
         <v>407</v>
       </c>
       <c r="E273" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I273" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9928,19 +10048,19 @@
         <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>748</v>
+        <v>689</v>
       </c>
       <c r="D274" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E274" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9951,19 +10071,19 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>749</v>
+        <v>690</v>
       </c>
       <c r="D275" t="s">
         <v>408</v>
       </c>
       <c r="E275" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9974,22 +10094,22 @@
         <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="D276" t="s">
         <v>409</v>
       </c>
       <c r="E276" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I276" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10000,22 +10120,22 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="D277" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E277" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F277">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I277" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10026,22 +10146,22 @@
         <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="D278" t="s">
         <v>410</v>
       </c>
       <c r="E278" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F278">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I278" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10052,19 +10172,19 @@
         <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="D279" t="s">
         <v>411</v>
       </c>
       <c r="E279" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10075,19 +10195,19 @@
         <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="D280" t="s">
         <v>412</v>
       </c>
       <c r="E280" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10098,19 +10218,19 @@
         <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>690</v>
+        <v>631</v>
       </c>
       <c r="D281" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E281" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H281" t="s">
         <v>277</v>
@@ -10124,19 +10244,19 @@
         <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>691</v>
+        <v>632</v>
       </c>
       <c r="D282" t="s">
         <v>413</v>
       </c>
       <c r="E282" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H282" t="s">
         <v>277</v>
@@ -10150,22 +10270,22 @@
         <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="D283" t="s">
         <v>325</v>
       </c>
       <c r="E283" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I283" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10176,22 +10296,22 @@
         <v>281</v>
       </c>
       <c r="C284" t="s">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="D284" t="s">
         <v>326</v>
       </c>
       <c r="E284" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I284" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,22 +10322,22 @@
         <v>282</v>
       </c>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D285" t="s">
         <v>327</v>
       </c>
       <c r="E285" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I285" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10228,22 +10348,22 @@
         <v>283</v>
       </c>
       <c r="C286" t="s">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="D286" t="s">
         <v>385</v>
       </c>
       <c r="E286" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="I286" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10254,22 +10374,22 @@
         <v>284</v>
       </c>
       <c r="C287" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="D287" t="s">
         <v>386</v>
       </c>
       <c r="E287" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287" t="s">
+        <v>668</v>
+      </c>
+      <c r="I287" t="s">
         <v>727</v>
-      </c>
-      <c r="I287" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10280,22 +10400,22 @@
         <v>285</v>
       </c>
       <c r="C288" t="s">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="D288" t="s">
         <v>387</v>
       </c>
       <c r="E288" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I288" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10306,22 +10426,22 @@
         <v>286</v>
       </c>
       <c r="C289" t="s">
-        <v>711</v>
+        <v>652</v>
       </c>
       <c r="D289" t="s">
         <v>388</v>
       </c>
       <c r="E289" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I289" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10332,22 +10452,22 @@
         <v>287</v>
       </c>
       <c r="C290" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="D290" t="s">
         <v>389</v>
       </c>
       <c r="E290" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I290" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10358,22 +10478,22 @@
         <v>288</v>
       </c>
       <c r="C291" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="D291" t="s">
         <v>390</v>
       </c>
       <c r="E291" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F291">
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I291" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10384,22 +10504,22 @@
         <v>289</v>
       </c>
       <c r="C292" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="D292" t="s">
         <v>391</v>
       </c>
       <c r="E292" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F292">
         <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I292" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10410,22 +10530,22 @@
         <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>714</v>
+        <v>655</v>
       </c>
       <c r="D293" t="s">
         <v>330</v>
       </c>
       <c r="E293" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I293" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10436,22 +10556,22 @@
         <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>693</v>
+        <v>634</v>
       </c>
       <c r="D294" t="s">
         <v>331</v>
       </c>
       <c r="E294" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F294">
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I294" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10462,22 +10582,22 @@
         <v>292</v>
       </c>
       <c r="C295" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="D295" t="s">
         <v>332</v>
       </c>
       <c r="E295" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F295">
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I295" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10488,22 +10608,22 @@
         <v>293</v>
       </c>
       <c r="C296" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="D296" t="s">
         <v>392</v>
       </c>
       <c r="E296" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F296">
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I296" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10514,22 +10634,22 @@
         <v>294</v>
       </c>
       <c r="C297" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="D297" t="s">
         <v>334</v>
       </c>
       <c r="E297" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I297" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10540,22 +10660,22 @@
         <v>295</v>
       </c>
       <c r="C298" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="D298" t="s">
         <v>335</v>
       </c>
       <c r="E298" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I298" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10566,22 +10686,22 @@
         <v>296</v>
       </c>
       <c r="C299" t="s">
-        <v>718</v>
+        <v>659</v>
       </c>
       <c r="D299" t="s">
         <v>336</v>
       </c>
       <c r="E299" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I299" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10592,22 +10712,22 @@
         <v>297</v>
       </c>
       <c r="C300" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="D300" t="s">
         <v>337</v>
       </c>
       <c r="E300" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I300" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,22 +10738,22 @@
         <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>720</v>
+        <v>661</v>
       </c>
       <c r="D301" t="s">
         <v>393</v>
       </c>
       <c r="E301" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I301" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10644,22 +10764,22 @@
         <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D302" t="s">
         <v>394</v>
       </c>
       <c r="E302" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I302" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10670,22 +10790,22 @@
         <v>300</v>
       </c>
       <c r="C303" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D303" t="s">
         <v>395</v>
       </c>
       <c r="E303" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I303" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10696,22 +10816,22 @@
         <v>301</v>
       </c>
       <c r="C304" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D304" t="s">
         <v>396</v>
       </c>
       <c r="E304" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I304" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10722,22 +10842,22 @@
         <v>302</v>
       </c>
       <c r="C305" t="s">
-        <v>721</v>
+        <v>662</v>
       </c>
       <c r="D305" t="s">
         <v>397</v>
       </c>
       <c r="E305" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I305" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10748,22 +10868,22 @@
         <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D306" t="s">
         <v>398</v>
       </c>
       <c r="E306" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I306" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,22 +10894,22 @@
         <v>304</v>
       </c>
       <c r="C307" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D307" t="s">
         <v>399</v>
       </c>
       <c r="E307" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I307" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10800,22 +10920,22 @@
         <v>305</v>
       </c>
       <c r="C308" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="D308" t="s">
         <v>400</v>
       </c>
       <c r="E308" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F308">
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I308" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10826,22 +10946,22 @@
         <v>306</v>
       </c>
       <c r="C309" t="s">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="D309" t="s">
         <v>401</v>
       </c>
       <c r="E309" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F309">
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="I309" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10852,19 +10972,19 @@
         <v>307</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D310" t="s">
         <v>402</v>
       </c>
       <c r="E310" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F310">
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10875,19 +10995,19 @@
         <v>308</v>
       </c>
       <c r="C311" t="s">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="D311" t="s">
         <v>353</v>
       </c>
       <c r="E311" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,19 +11018,19 @@
         <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>703</v>
+        <v>644</v>
       </c>
       <c r="D312" t="s">
         <v>403</v>
       </c>
       <c r="E312" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H312" t="s">
         <v>308</v>
@@ -10924,19 +11044,19 @@
         <v>310</v>
       </c>
       <c r="C313" t="s">
-        <v>704</v>
+        <v>645</v>
       </c>
       <c r="D313" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="E313" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H313" t="s">
         <v>308</v>
@@ -10950,19 +11070,19 @@
         <v>311</v>
       </c>
       <c r="C314" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="D314" t="s">
         <v>404</v>
       </c>
       <c r="E314" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H314" t="s">
         <v>308</v>
@@ -10973,28 +11093,28 @@
         <v>2</v>
       </c>
       <c r="B315" t="s">
-        <v>834</v>
+        <v>773</v>
       </c>
       <c r="C315" t="s">
-        <v>835</v>
+        <v>774</v>
       </c>
       <c r="D315" t="s">
-        <v>836</v>
+        <v>775</v>
       </c>
       <c r="E315" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H315" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I315" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11005,25 +11125,25 @@
         <v>312</v>
       </c>
       <c r="C316" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="D316" t="s">
         <v>356</v>
       </c>
       <c r="E316" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="H316" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="I316" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11034,22 +11154,22 @@
         <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>723</v>
+        <v>664</v>
       </c>
       <c r="D317" t="s">
         <v>405</v>
       </c>
       <c r="E317" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="I317" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11060,19 +11180,19 @@
         <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="D318" t="s">
         <v>406</v>
       </c>
       <c r="E318" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F318">
         <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11083,22 +11203,22 @@
         <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>752</v>
+        <v>693</v>
       </c>
       <c r="D319" t="s">
         <v>407</v>
       </c>
       <c r="E319" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F319">
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I319" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11109,19 +11229,19 @@
         <v>316</v>
       </c>
       <c r="C320" t="s">
-        <v>753</v>
+        <v>694</v>
       </c>
       <c r="D320" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="E320" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F320">
         <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11132,19 +11252,19 @@
         <v>317</v>
       </c>
       <c r="C321" t="s">
-        <v>754</v>
+        <v>695</v>
       </c>
       <c r="D321" t="s">
         <v>408</v>
       </c>
       <c r="E321" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F321">
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11155,22 +11275,22 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="D322" t="s">
         <v>409</v>
       </c>
       <c r="E322" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F322">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I322" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11181,22 +11301,22 @@
         <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>724</v>
+        <v>665</v>
       </c>
       <c r="D323" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="E323" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F323">
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="I323" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11207,22 +11327,22 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>725</v>
+        <v>666</v>
       </c>
       <c r="D324" t="s">
         <v>410</v>
       </c>
       <c r="E324" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F324">
         <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="I324" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11233,19 +11353,19 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="D325" t="s">
         <v>411</v>
       </c>
       <c r="E325" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F325">
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,19 +11376,19 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>726</v>
+        <v>667</v>
       </c>
       <c r="D326" t="s">
         <v>412</v>
       </c>
       <c r="E326" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F326">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11279,19 +11399,19 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="D327" t="s">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="E327" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="H327" t="s">
         <v>322</v>
@@ -11305,19 +11425,19 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>707</v>
+        <v>648</v>
       </c>
       <c r="D328" t="s">
         <v>413</v>
       </c>
       <c r="E328" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="F328">
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="H328" t="s">
         <v>322</v>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Project\EPAR\Working Files\RA Working Folders\Sam\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DB3AE-6865-4361-9D20-85ACD29383C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB3462-180D-493F-944C-2296D8EBAD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1264,12 +1264,6 @@
     <t>AKA Density: Herd Size / area used for animal mgmt</t>
   </si>
   <si>
-    <t>prettyName</t>
-  </si>
-  <si>
-    <t>Long Name</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -2531,6 +2525,12 @@
   </si>
   <si>
     <t>Number of pig deaths, share of total herd over survey timeframe, %</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>labelName</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2885,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,28 +2908,28 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E1" t="s">
         <v>414</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>415</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>418</v>
       </c>
-      <c r="H1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I1" t="s">
-        <v>420</v>
-      </c>
       <c r="J1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2940,22 +2940,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
         <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2966,22 +2966,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,22 +2992,22 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,25 +3018,25 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3047,22 +3047,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
         <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3073,22 +3073,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
         <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,22 +3099,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
         <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,25 +3125,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
         <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,22 +3154,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
         <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,22 +3180,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
         <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,22 +3206,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
         <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,22 +3232,22 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
         <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3258,22 +3258,22 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
         <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I14" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,22 +3284,22 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
         <v>338</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,22 +3310,22 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
         <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3336,25 +3336,25 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
         <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3365,22 +3365,22 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I18" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3391,22 +3391,22 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,22 +3417,22 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>343</v>
       </c>
       <c r="E20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,22 +3443,22 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,22 +3469,22 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
         <v>345</v>
       </c>
       <c r="E22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,22 +3495,22 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
         <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,22 +3521,22 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D24" t="s">
         <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,22 +3547,22 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D25" t="s">
         <v>348</v>
       </c>
       <c r="E25" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3573,22 +3573,22 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
         <v>349</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I26" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,22 +3599,22 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
         <v>350</v>
       </c>
       <c r="E27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I27" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,22 +3625,22 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D28" t="s">
         <v>351</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3651,25 +3651,25 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D29" t="s">
         <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3680,22 +3680,22 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D30" t="s">
         <v>353</v>
       </c>
       <c r="E30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,25 +3706,25 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D31" t="s">
         <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3735,25 +3735,25 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E32" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,25 +3764,25 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
         <v>355</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3790,28 +3790,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>812</v>
+      </c>
+      <c r="C34" t="s">
+        <v>813</v>
+      </c>
+      <c r="D34" t="s">
         <v>814</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
+        <v>811</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>729</v>
+      </c>
+      <c r="H34" t="s">
+        <v>753</v>
+      </c>
+      <c r="I34" t="s">
         <v>815</v>
-      </c>
-      <c r="D34" t="s">
-        <v>816</v>
-      </c>
-      <c r="E34" t="s">
-        <v>813</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>731</v>
-      </c>
-      <c r="H34" t="s">
-        <v>755</v>
-      </c>
-      <c r="I34" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,25 +3822,25 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s">
         <v>356</v>
       </c>
       <c r="E35" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H35" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,22 +3851,22 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D36" t="s">
         <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I36" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3877,22 +3877,22 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D37" t="s">
         <v>358</v>
       </c>
       <c r="E37" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I37" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,22 +3903,22 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
         <v>359</v>
       </c>
       <c r="E38" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I38" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,22 +3929,22 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D39" t="s">
         <v>360</v>
       </c>
       <c r="E39" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I39" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,22 +3955,22 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
         <v>361</v>
       </c>
       <c r="E40" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I40" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,19 +3981,19 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D41" t="s">
         <v>362</v>
       </c>
       <c r="E41" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,22 +4004,22 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
         <v>363</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4030,19 +4030,19 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
         <v>364</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,22 +4053,22 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D44" t="s">
         <v>365</v>
       </c>
       <c r="E44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I44" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,19 +4079,19 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D45" t="s">
         <v>366</v>
       </c>
       <c r="E45" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4102,19 +4102,19 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D46" t="s">
         <v>367</v>
       </c>
       <c r="E46" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,22 +4125,22 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
         <v>368</v>
       </c>
       <c r="E47" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I47" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,19 +4151,19 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D48" t="s">
         <v>369</v>
       </c>
       <c r="E48" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,19 +4174,19 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D49" t="s">
         <v>370</v>
       </c>
       <c r="E49" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,22 +4197,22 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D50" t="s">
         <v>371</v>
       </c>
       <c r="E50" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I50" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,22 +4223,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D51" t="s">
         <v>372</v>
       </c>
       <c r="E51" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I51" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,22 +4249,22 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D52" t="s">
         <v>373</v>
       </c>
       <c r="E52" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I52" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,19 +4275,19 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
         <v>374</v>
       </c>
       <c r="E53" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,22 +4298,22 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D54" t="s">
         <v>375</v>
       </c>
       <c r="E54" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I54" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,19 +4324,19 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
         <v>376</v>
       </c>
       <c r="E55" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4347,19 +4347,19 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D56" t="s">
         <v>377</v>
       </c>
       <c r="E56" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,22 +4370,22 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
         <v>378</v>
       </c>
       <c r="E57" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I57" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,19 +4396,19 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
         <v>379</v>
       </c>
       <c r="E58" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,19 +4419,19 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
         <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,22 +4442,22 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D60" t="s">
         <v>381</v>
       </c>
       <c r="E60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,19 +4468,19 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D61" t="s">
         <v>382</v>
       </c>
       <c r="E61" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4491,19 +4491,19 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D62" t="s">
         <v>383</v>
       </c>
       <c r="E62" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,19 +4514,19 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D63" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E63" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H63" t="s">
         <v>63</v>
@@ -4540,19 +4540,19 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
       </c>
       <c r="E64" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H64" t="s">
         <v>63</v>
@@ -4566,22 +4566,22 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D65" t="s">
         <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I65" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,22 +4592,22 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D66" t="s">
         <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I66" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4618,22 +4618,22 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D67" t="s">
         <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I67" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,22 +4644,22 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D68" t="s">
         <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I68" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4670,22 +4670,22 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D69" t="s">
         <v>329</v>
       </c>
       <c r="E69" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I69" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4696,22 +4696,22 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D70" t="s">
         <v>330</v>
       </c>
       <c r="E70" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I70" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4722,22 +4722,22 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D71" t="s">
         <v>331</v>
       </c>
       <c r="E71" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I71" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,22 +4748,22 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D72" t="s">
         <v>332</v>
       </c>
       <c r="E72" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I72" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,22 +4774,22 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D73" t="s">
         <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I73" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4800,22 +4800,22 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D74" t="s">
         <v>334</v>
       </c>
       <c r="E74" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I74" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,22 +4826,22 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D75" t="s">
         <v>335</v>
       </c>
       <c r="E75" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I75" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4852,22 +4852,22 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D76" t="s">
         <v>336</v>
       </c>
       <c r="E76" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I76" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,22 +4878,22 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D77" t="s">
         <v>337</v>
       </c>
       <c r="E77" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I77" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,22 +4904,22 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D78" t="s">
         <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I78" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4930,22 +4930,22 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D79" t="s">
         <v>339</v>
       </c>
       <c r="E79" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I79" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4956,22 +4956,22 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D80" t="s">
         <v>340</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I80" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4982,22 +4982,22 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D81" t="s">
         <v>341</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I81" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,22 +5008,22 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D82" t="s">
         <v>342</v>
       </c>
       <c r="E82" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I82" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,22 +5034,22 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D83" t="s">
         <v>343</v>
       </c>
       <c r="E83" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I83" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5060,22 +5060,22 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D84" t="s">
         <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I84" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5086,22 +5086,22 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I85" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5112,22 +5112,22 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D86" t="s">
         <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I86" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5138,22 +5138,22 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I87" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5164,22 +5164,22 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D88" t="s">
         <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I88" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,22 +5190,22 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D89" t="s">
         <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I89" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,22 +5216,22 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D90" t="s">
         <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I90" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,22 +5242,22 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D91" t="s">
         <v>351</v>
       </c>
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I91" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5268,19 +5268,19 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D92" t="s">
         <v>352</v>
       </c>
       <c r="E92" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,22 +5291,22 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D93" t="s">
         <v>353</v>
       </c>
       <c r="E93" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I93" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5317,25 +5317,25 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D94" t="s">
         <v>354</v>
       </c>
       <c r="E94" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H94" t="s">
         <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,25 +5346,25 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D95" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E95" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H95" t="s">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,25 +5375,25 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D96" t="s">
         <v>355</v>
       </c>
       <c r="E96" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H96" t="s">
         <v>94</v>
       </c>
       <c r="I96" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5401,28 +5401,28 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
+        <v>817</v>
+      </c>
+      <c r="C97" t="s">
+        <v>818</v>
+      </c>
+      <c r="D97" t="s">
         <v>819</v>
       </c>
-      <c r="C97" t="s">
-        <v>820</v>
-      </c>
-      <c r="D97" t="s">
-        <v>821</v>
-      </c>
       <c r="E97" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H97" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I97" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5433,25 +5433,25 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D98" t="s">
         <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H98" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I98" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,22 +5462,22 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D99" t="s">
         <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I99" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5488,22 +5488,22 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D100" t="s">
         <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I100" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,22 +5514,22 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D101" t="s">
         <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I101" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5540,22 +5540,22 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D102" t="s">
         <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I102" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,22 +5566,22 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D103" t="s">
         <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I103" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5592,19 +5592,19 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D104" t="s">
         <v>362</v>
       </c>
       <c r="E104" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,22 +5615,22 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D105" t="s">
         <v>363</v>
       </c>
       <c r="E105" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I105" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5641,19 +5641,19 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D106" t="s">
         <v>364</v>
       </c>
       <c r="E106" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5664,22 +5664,22 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D107" t="s">
         <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I107" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,19 +5690,19 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D108" t="s">
         <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,19 +5713,19 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D109" t="s">
         <v>367</v>
       </c>
       <c r="E109" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5736,22 +5736,22 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D110" t="s">
         <v>368</v>
       </c>
       <c r="E110" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I110" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5762,19 +5762,19 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
       </c>
       <c r="E111" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5785,19 +5785,19 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D112" t="s">
         <v>370</v>
       </c>
       <c r="E112" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5808,22 +5808,22 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D113" t="s">
         <v>371</v>
       </c>
       <c r="E113" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I113" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,22 +5834,22 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D114" t="s">
         <v>372</v>
       </c>
       <c r="E114" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I114" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5860,22 +5860,22 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D115" t="s">
         <v>373</v>
       </c>
       <c r="E115" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I115" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5886,19 +5886,19 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D116" t="s">
         <v>374</v>
       </c>
       <c r="E116" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,22 +5909,22 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D117" t="s">
         <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I117" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,19 +5935,19 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D118" t="s">
         <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5958,19 +5958,19 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D119" t="s">
         <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,22 +5981,22 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D120" t="s">
         <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I120" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,19 +6007,19 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D121" t="s">
         <v>379</v>
       </c>
       <c r="E121" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6030,19 +6030,19 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D122" t="s">
         <v>380</v>
       </c>
       <c r="E122" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,22 +6053,22 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D123" t="s">
         <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I123" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,19 +6079,19 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D124" t="s">
         <v>382</v>
       </c>
       <c r="E124" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,19 +6102,19 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D125" t="s">
         <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,19 +6125,19 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D126" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E126" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H126" t="s">
         <v>125</v>
@@ -6151,19 +6151,19 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D127" t="s">
         <v>384</v>
       </c>
       <c r="E127" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H127" t="s">
         <v>125</v>
@@ -6177,22 +6177,22 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D128" t="s">
         <v>325</v>
       </c>
       <c r="E128" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I128" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6203,22 +6203,22 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D129" t="s">
         <v>326</v>
       </c>
       <c r="E129" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I129" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6229,22 +6229,22 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D130" t="s">
         <v>327</v>
       </c>
       <c r="E130" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I130" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6255,22 +6255,22 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D131" t="s">
         <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I131" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,22 +6281,22 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D132" t="s">
         <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I132" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,22 +6307,22 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D133" t="s">
         <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I133" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6333,22 +6333,22 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D134" t="s">
         <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I134" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6359,22 +6359,22 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D135" t="s">
         <v>332</v>
       </c>
       <c r="E135" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I135" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6385,22 +6385,22 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D136" t="s">
         <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I136" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,22 +6411,22 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D137" t="s">
         <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I137" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,22 +6437,22 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
         <v>335</v>
       </c>
       <c r="E138" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I138" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,22 +6463,22 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
         <v>336</v>
       </c>
       <c r="E139" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I139" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,22 +6489,22 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D140" t="s">
         <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I140" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,22 +6515,22 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D141" t="s">
         <v>338</v>
       </c>
       <c r="E141" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I141" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6541,22 +6541,22 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D142" t="s">
         <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I142" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,22 +6567,22 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D143" t="s">
         <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I143" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,22 +6593,22 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D144" t="s">
         <v>341</v>
       </c>
       <c r="E144" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I144" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6619,22 +6619,22 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D145" t="s">
         <v>342</v>
       </c>
       <c r="E145" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I145" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,22 +6645,22 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D146" t="s">
         <v>343</v>
       </c>
       <c r="E146" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I146" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,22 +6671,22 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
         <v>344</v>
       </c>
       <c r="E147" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I147" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,22 +6697,22 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D148" t="s">
         <v>345</v>
       </c>
       <c r="E148" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I148" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,22 +6723,22 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D149" t="s">
         <v>346</v>
       </c>
       <c r="E149" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I149" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,22 +6749,22 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D150" t="s">
         <v>347</v>
       </c>
       <c r="E150" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I150" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,22 +6775,22 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D151" t="s">
         <v>348</v>
       </c>
       <c r="E151" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I151" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,22 +6801,22 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D152" t="s">
         <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I152" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,22 +6827,22 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D153" t="s">
         <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I153" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6853,22 +6853,22 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D154" t="s">
         <v>351</v>
       </c>
       <c r="E154" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I154" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,19 +6879,19 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D155" t="s">
         <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,22 +6902,22 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D156" t="s">
         <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I156" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6928,25 +6928,25 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D157" t="s">
         <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H157" t="s">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6957,25 +6957,25 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D158" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E158" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H158" t="s">
         <v>156</v>
       </c>
       <c r="I158" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6986,25 +6986,25 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D159" t="s">
         <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H159" t="s">
         <v>156</v>
       </c>
       <c r="I159" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7012,28 +7012,28 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
+        <v>820</v>
+      </c>
+      <c r="C160" t="s">
+        <v>821</v>
+      </c>
+      <c r="D160" t="s">
         <v>822</v>
       </c>
-      <c r="C160" t="s">
-        <v>823</v>
-      </c>
-      <c r="D160" t="s">
-        <v>824</v>
-      </c>
       <c r="E160" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H160" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I160" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7044,25 +7044,25 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D161" t="s">
         <v>356</v>
       </c>
       <c r="E161" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H161" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I161" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7073,22 +7073,22 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D162" t="s">
         <v>357</v>
       </c>
       <c r="E162" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I162" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,22 +7099,22 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D163" t="s">
         <v>358</v>
       </c>
       <c r="E163" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I163" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7125,22 +7125,22 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D164" t="s">
         <v>359</v>
       </c>
       <c r="E164" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I164" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -7151,22 +7151,22 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D165" t="s">
         <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I165" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7177,22 +7177,22 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D166" t="s">
         <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I166" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7203,19 +7203,19 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D167" t="s">
         <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7226,22 +7226,22 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D168" t="s">
         <v>363</v>
       </c>
       <c r="E168" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I168" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7252,19 +7252,19 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D169" t="s">
         <v>364</v>
       </c>
       <c r="E169" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,22 +7275,22 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D170" t="s">
         <v>365</v>
       </c>
       <c r="E170" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I170" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,19 +7301,19 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D171" t="s">
         <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,19 +7324,19 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D172" t="s">
         <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,22 +7347,22 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D173" t="s">
         <v>368</v>
       </c>
       <c r="E173" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I173" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,19 +7373,19 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D174" t="s">
         <v>369</v>
       </c>
       <c r="E174" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,19 +7396,19 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D175" t="s">
         <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7419,22 +7419,22 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D176" t="s">
         <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I176" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,22 +7445,22 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D177" t="s">
         <v>372</v>
       </c>
       <c r="E177" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F177">
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I177" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7471,22 +7471,22 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D178" t="s">
         <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I178" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,19 +7497,19 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D179" t="s">
         <v>374</v>
       </c>
       <c r="E179" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7520,22 +7520,22 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D180" t="s">
         <v>375</v>
       </c>
       <c r="E180" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F180">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I180" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,19 +7546,19 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D181" t="s">
         <v>376</v>
       </c>
       <c r="E181" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7569,19 +7569,19 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D182" t="s">
         <v>377</v>
       </c>
       <c r="E182" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7592,22 +7592,22 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D183" t="s">
         <v>378</v>
       </c>
       <c r="E183" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I183" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7618,19 +7618,19 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D184" t="s">
         <v>379</v>
       </c>
       <c r="E184" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7641,19 +7641,19 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D185" t="s">
         <v>380</v>
       </c>
       <c r="E185" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7664,22 +7664,22 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D186" t="s">
         <v>381</v>
       </c>
       <c r="E186" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I186" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7690,19 +7690,19 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D187" t="s">
         <v>382</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7713,19 +7713,19 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D188" t="s">
         <v>383</v>
       </c>
       <c r="E188" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,19 +7736,19 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D189" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E189" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F189">
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H189" t="s">
         <v>187</v>
@@ -7762,19 +7762,19 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D190" t="s">
         <v>384</v>
       </c>
       <c r="E190" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H190" t="s">
         <v>187</v>
@@ -7788,22 +7788,22 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D191" t="s">
         <v>325</v>
       </c>
       <c r="E191" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I191" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7814,22 +7814,22 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D192" t="s">
         <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I192" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7840,22 +7840,22 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D193" t="s">
         <v>327</v>
       </c>
       <c r="E193" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I193" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7866,22 +7866,22 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D194" t="s">
         <v>385</v>
       </c>
       <c r="E194" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I194" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7892,22 +7892,22 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D195" t="s">
         <v>386</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I195" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7918,22 +7918,22 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D196" t="s">
         <v>387</v>
       </c>
       <c r="E196" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F196">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I196" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7944,22 +7944,22 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D197" t="s">
         <v>388</v>
       </c>
       <c r="E197" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I197" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7970,22 +7970,22 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D198" t="s">
         <v>389</v>
       </c>
       <c r="E198" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I198" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7996,22 +7996,22 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D199" t="s">
         <v>390</v>
       </c>
       <c r="E199" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I199" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,22 +8022,22 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D200" t="s">
         <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I200" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8048,22 +8048,22 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D201" t="s">
         <v>330</v>
       </c>
       <c r="E201" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I201" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8074,22 +8074,22 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D202" t="s">
         <v>331</v>
       </c>
       <c r="E202" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F202">
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I202" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8100,22 +8100,22 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D203" t="s">
         <v>332</v>
       </c>
       <c r="E203" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I203" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8126,22 +8126,22 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D204" t="s">
         <v>392</v>
       </c>
       <c r="E204" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F204">
         <v>1</v>
       </c>
       <c r="G204" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I204" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8152,22 +8152,22 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D205" t="s">
         <v>334</v>
       </c>
       <c r="E205" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I205" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8178,22 +8178,22 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D206" t="s">
         <v>335</v>
       </c>
       <c r="E206" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I206" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8204,22 +8204,22 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D207" t="s">
         <v>336</v>
       </c>
       <c r="E207" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I207" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8230,22 +8230,22 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D208" t="s">
         <v>337</v>
       </c>
       <c r="E208" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F208">
         <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I208" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8256,22 +8256,22 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D209" t="s">
         <v>393</v>
       </c>
       <c r="E209" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I209" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8282,22 +8282,22 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D210" t="s">
         <v>394</v>
       </c>
       <c r="E210" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I210" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,22 +8308,22 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D211" t="s">
         <v>395</v>
       </c>
       <c r="E211" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I211" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8334,22 +8334,22 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D212" t="s">
         <v>396</v>
       </c>
       <c r="E212" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I212" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8360,22 +8360,22 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D213" t="s">
         <v>397</v>
       </c>
       <c r="E213" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I213" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8386,22 +8386,22 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D214" t="s">
         <v>398</v>
       </c>
       <c r="E214" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I214" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8412,22 +8412,22 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D215" t="s">
         <v>399</v>
       </c>
       <c r="E215" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I215" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8438,22 +8438,22 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D216" t="s">
         <v>400</v>
       </c>
       <c r="E216" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I216" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8464,22 +8464,22 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D217" t="s">
         <v>401</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I217" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8490,19 +8490,19 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D218" t="s">
         <v>402</v>
       </c>
       <c r="E218" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8513,19 +8513,19 @@
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D219" t="s">
         <v>353</v>
       </c>
       <c r="E219" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8536,19 +8536,19 @@
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D220" t="s">
         <v>403</v>
       </c>
       <c r="E220" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H220" t="s">
         <v>218</v>
@@ -8562,19 +8562,19 @@
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D221" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E221" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H221" t="s">
         <v>218</v>
@@ -8588,19 +8588,19 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D222" t="s">
         <v>404</v>
       </c>
       <c r="E222" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H222" t="s">
         <v>218</v>
@@ -8611,28 +8611,28 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
+        <v>824</v>
+      </c>
+      <c r="C223" t="s">
+        <v>825</v>
+      </c>
+      <c r="D223" t="s">
         <v>826</v>
       </c>
-      <c r="C223" t="s">
-        <v>827</v>
-      </c>
-      <c r="D223" t="s">
-        <v>828</v>
-      </c>
       <c r="E223" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H223" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I223" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,25 +8643,25 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D224" t="s">
         <v>356</v>
       </c>
       <c r="E224" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H224" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I224" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8672,22 +8672,22 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D225" t="s">
         <v>405</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I225" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8698,19 +8698,19 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D226" t="s">
         <v>406</v>
       </c>
       <c r="E226" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8721,22 +8721,22 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D227" t="s">
         <v>407</v>
       </c>
       <c r="E227" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I227" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8747,19 +8747,19 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D228" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E228" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8770,19 +8770,19 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D229" t="s">
         <v>408</v>
       </c>
       <c r="E229" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8793,22 +8793,22 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D230" t="s">
         <v>409</v>
       </c>
       <c r="E230" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I230" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8819,22 +8819,22 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D231" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E231" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I231" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8845,22 +8845,22 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D232" t="s">
         <v>410</v>
       </c>
       <c r="E232" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I232" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8871,19 +8871,19 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D233" t="s">
         <v>411</v>
       </c>
       <c r="E233" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8894,19 +8894,19 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D234" t="s">
         <v>412</v>
       </c>
       <c r="E234" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,19 +8917,19 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D235" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E235" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H235" t="s">
         <v>232</v>
@@ -8943,19 +8943,19 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D236" t="s">
         <v>413</v>
       </c>
       <c r="E236" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H236" t="s">
         <v>232</v>
@@ -8969,22 +8969,22 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D237" t="s">
         <v>325</v>
       </c>
       <c r="E237" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I237" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8995,22 +8995,22 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D238" t="s">
         <v>326</v>
       </c>
       <c r="E238" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I238" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9021,22 +9021,22 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D239" t="s">
         <v>327</v>
       </c>
       <c r="E239" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I239" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9047,22 +9047,22 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D240" t="s">
         <v>385</v>
       </c>
       <c r="E240" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I240" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9073,22 +9073,22 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D241" t="s">
         <v>386</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I241" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9099,22 +9099,22 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D242" t="s">
         <v>387</v>
       </c>
       <c r="E242" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I242" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,22 +9125,22 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D243" t="s">
         <v>388</v>
       </c>
       <c r="E243" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I243" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9151,22 +9151,22 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D244" t="s">
         <v>389</v>
       </c>
       <c r="E244" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I244" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9177,22 +9177,22 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D245" t="s">
         <v>390</v>
       </c>
       <c r="E245" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I245" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9203,22 +9203,22 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D246" t="s">
         <v>391</v>
       </c>
       <c r="E246" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I246" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,22 +9229,22 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D247" t="s">
         <v>330</v>
       </c>
       <c r="E247" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I247" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,22 +9255,22 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D248" t="s">
         <v>331</v>
       </c>
       <c r="E248" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I248" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9281,22 +9281,22 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D249" t="s">
         <v>332</v>
       </c>
       <c r="E249" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I249" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9307,22 +9307,22 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D250" t="s">
         <v>392</v>
       </c>
       <c r="E250" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I250" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9333,22 +9333,22 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D251" t="s">
         <v>334</v>
       </c>
       <c r="E251" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F251">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I251" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9359,22 +9359,22 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D252" t="s">
         <v>335</v>
       </c>
       <c r="E252" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I252" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9385,22 +9385,22 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D253" t="s">
         <v>336</v>
       </c>
       <c r="E253" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F253">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I253" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9411,22 +9411,22 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D254" t="s">
         <v>337</v>
       </c>
       <c r="E254" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I254" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9437,22 +9437,22 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D255" t="s">
         <v>393</v>
       </c>
       <c r="E255" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I255" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,22 +9463,22 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D256" t="s">
         <v>394</v>
       </c>
       <c r="E256" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I256" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,22 +9489,22 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D257" t="s">
         <v>395</v>
       </c>
       <c r="E257" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I257" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9515,22 +9515,22 @@
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D258" t="s">
         <v>396</v>
       </c>
       <c r="E258" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I258" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,22 +9541,22 @@
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D259" t="s">
         <v>397</v>
       </c>
       <c r="E259" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I259" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,22 +9567,22 @@
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D260" t="s">
         <v>398</v>
       </c>
       <c r="E260" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I260" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9593,22 +9593,22 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D261" t="s">
         <v>399</v>
       </c>
       <c r="E261" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I261" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,22 +9619,22 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D262" t="s">
         <v>400</v>
       </c>
       <c r="E262" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F262">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I262" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9645,22 +9645,22 @@
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D263" t="s">
         <v>401</v>
       </c>
       <c r="E263" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F263">
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I263" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9671,19 +9671,19 @@
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D264" t="s">
         <v>402</v>
       </c>
       <c r="E264" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9694,19 +9694,19 @@
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D265" t="s">
         <v>353</v>
       </c>
       <c r="E265" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9717,19 +9717,19 @@
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D266" t="s">
         <v>403</v>
       </c>
       <c r="E266" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H266" t="s">
         <v>263</v>
@@ -9743,19 +9743,19 @@
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E267" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H267" t="s">
         <v>263</v>
@@ -9769,19 +9769,19 @@
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D268" t="s">
         <v>404</v>
       </c>
       <c r="E268" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H268" t="s">
         <v>263</v>
@@ -9792,28 +9792,28 @@
         <v>2</v>
       </c>
       <c r="B269" t="s">
+        <v>829</v>
+      </c>
+      <c r="C269" t="s">
+        <v>830</v>
+      </c>
+      <c r="D269" t="s">
         <v>831</v>
       </c>
-      <c r="C269" t="s">
-        <v>832</v>
-      </c>
-      <c r="D269" t="s">
-        <v>833</v>
-      </c>
       <c r="E269" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H269" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I269" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9824,25 +9824,25 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D270" t="s">
         <v>356</v>
       </c>
       <c r="E270" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H270" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I270" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9853,22 +9853,22 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D271" t="s">
         <v>405</v>
       </c>
       <c r="E271" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I271" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9879,19 +9879,19 @@
         <v>269</v>
       </c>
       <c r="C272" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D272" t="s">
         <v>406</v>
       </c>
       <c r="E272" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F272">
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9902,22 +9902,22 @@
         <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D273" t="s">
         <v>407</v>
       </c>
       <c r="E273" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I273" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9928,19 +9928,19 @@
         <v>271</v>
       </c>
       <c r="C274" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D274" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E274" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9951,19 +9951,19 @@
         <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D275" t="s">
         <v>408</v>
       </c>
       <c r="E275" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9974,22 +9974,22 @@
         <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D276" t="s">
         <v>409</v>
       </c>
       <c r="E276" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I276" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10000,22 +10000,22 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D277" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E277" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F277">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I277" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10026,22 +10026,22 @@
         <v>275</v>
       </c>
       <c r="C278" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D278" t="s">
         <v>410</v>
       </c>
       <c r="E278" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F278">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I278" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10052,19 +10052,19 @@
         <v>276</v>
       </c>
       <c r="C279" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D279" t="s">
         <v>411</v>
       </c>
       <c r="E279" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10075,19 +10075,19 @@
         <v>277</v>
       </c>
       <c r="C280" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D280" t="s">
         <v>412</v>
       </c>
       <c r="E280" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10098,19 +10098,19 @@
         <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D281" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E281" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H281" t="s">
         <v>277</v>
@@ -10124,19 +10124,19 @@
         <v>279</v>
       </c>
       <c r="C282" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D282" t="s">
         <v>413</v>
       </c>
       <c r="E282" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H282" t="s">
         <v>277</v>
@@ -10150,22 +10150,22 @@
         <v>280</v>
       </c>
       <c r="C283" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D283" t="s">
         <v>325</v>
       </c>
       <c r="E283" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I283" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10176,22 +10176,22 @@
         <v>281</v>
       </c>
       <c r="C284" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D284" t="s">
         <v>326</v>
       </c>
       <c r="E284" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I284" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,22 +10202,22 @@
         <v>282</v>
       </c>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D285" t="s">
         <v>327</v>
       </c>
       <c r="E285" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I285" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10228,22 +10228,22 @@
         <v>283</v>
       </c>
       <c r="C286" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D286" t="s">
         <v>385</v>
       </c>
       <c r="E286" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I286" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10254,22 +10254,22 @@
         <v>284</v>
       </c>
       <c r="C287" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D287" t="s">
         <v>386</v>
       </c>
       <c r="E287" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I287" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10280,22 +10280,22 @@
         <v>285</v>
       </c>
       <c r="C288" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D288" t="s">
         <v>387</v>
       </c>
       <c r="E288" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I288" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10306,22 +10306,22 @@
         <v>286</v>
       </c>
       <c r="C289" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D289" t="s">
         <v>388</v>
       </c>
       <c r="E289" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
       <c r="G289" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I289" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10332,22 +10332,22 @@
         <v>287</v>
       </c>
       <c r="C290" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D290" t="s">
         <v>389</v>
       </c>
       <c r="E290" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I290" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10358,22 +10358,22 @@
         <v>288</v>
       </c>
       <c r="C291" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D291" t="s">
         <v>390</v>
       </c>
       <c r="E291" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F291">
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I291" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10384,22 +10384,22 @@
         <v>289</v>
       </c>
       <c r="C292" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D292" t="s">
         <v>391</v>
       </c>
       <c r="E292" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F292">
         <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I292" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10410,22 +10410,22 @@
         <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D293" t="s">
         <v>330</v>
       </c>
       <c r="E293" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I293" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10436,22 +10436,22 @@
         <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D294" t="s">
         <v>331</v>
       </c>
       <c r="E294" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F294">
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I294" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10462,22 +10462,22 @@
         <v>292</v>
       </c>
       <c r="C295" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D295" t="s">
         <v>332</v>
       </c>
       <c r="E295" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F295">
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I295" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10488,22 +10488,22 @@
         <v>293</v>
       </c>
       <c r="C296" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D296" t="s">
         <v>392</v>
       </c>
       <c r="E296" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F296">
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I296" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10514,22 +10514,22 @@
         <v>294</v>
       </c>
       <c r="C297" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D297" t="s">
         <v>334</v>
       </c>
       <c r="E297" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I297" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10540,22 +10540,22 @@
         <v>295</v>
       </c>
       <c r="C298" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D298" t="s">
         <v>335</v>
       </c>
       <c r="E298" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I298" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10566,22 +10566,22 @@
         <v>296</v>
       </c>
       <c r="C299" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D299" t="s">
         <v>336</v>
       </c>
       <c r="E299" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I299" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10592,22 +10592,22 @@
         <v>297</v>
       </c>
       <c r="C300" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D300" t="s">
         <v>337</v>
       </c>
       <c r="E300" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I300" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,22 +10618,22 @@
         <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D301" t="s">
         <v>393</v>
       </c>
       <c r="E301" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
       <c r="G301" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I301" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10644,22 +10644,22 @@
         <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D302" t="s">
         <v>394</v>
       </c>
       <c r="E302" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I302" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10670,22 +10670,22 @@
         <v>300</v>
       </c>
       <c r="C303" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D303" t="s">
         <v>395</v>
       </c>
       <c r="E303" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I303" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10696,22 +10696,22 @@
         <v>301</v>
       </c>
       <c r="C304" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D304" t="s">
         <v>396</v>
       </c>
       <c r="E304" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I304" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10722,22 +10722,22 @@
         <v>302</v>
       </c>
       <c r="C305" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D305" t="s">
         <v>397</v>
       </c>
       <c r="E305" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I305" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10748,22 +10748,22 @@
         <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D306" t="s">
         <v>398</v>
       </c>
       <c r="E306" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I306" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,22 +10774,22 @@
         <v>304</v>
       </c>
       <c r="C307" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D307" t="s">
         <v>399</v>
       </c>
       <c r="E307" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I307" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10800,22 +10800,22 @@
         <v>305</v>
       </c>
       <c r="C308" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D308" t="s">
         <v>400</v>
       </c>
       <c r="E308" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F308">
         <v>1</v>
       </c>
       <c r="G308" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I308" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10826,22 +10826,22 @@
         <v>306</v>
       </c>
       <c r="C309" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D309" t="s">
         <v>401</v>
       </c>
       <c r="E309" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F309">
         <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I309" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10852,19 +10852,19 @@
         <v>307</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D310" t="s">
         <v>402</v>
       </c>
       <c r="E310" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F310">
         <v>1</v>
       </c>
       <c r="G310" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10875,19 +10875,19 @@
         <v>308</v>
       </c>
       <c r="C311" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D311" t="s">
         <v>353</v>
       </c>
       <c r="E311" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,19 +10898,19 @@
         <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D312" t="s">
         <v>403</v>
       </c>
       <c r="E312" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H312" t="s">
         <v>308</v>
@@ -10924,19 +10924,19 @@
         <v>310</v>
       </c>
       <c r="C313" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D313" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E313" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H313" t="s">
         <v>308</v>
@@ -10950,19 +10950,19 @@
         <v>311</v>
       </c>
       <c r="C314" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D314" t="s">
         <v>404</v>
       </c>
       <c r="E314" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H314" t="s">
         <v>308</v>
@@ -10973,28 +10973,28 @@
         <v>2</v>
       </c>
       <c r="B315" t="s">
+        <v>832</v>
+      </c>
+      <c r="C315" t="s">
+        <v>833</v>
+      </c>
+      <c r="D315" t="s">
         <v>834</v>
       </c>
-      <c r="C315" t="s">
-        <v>835</v>
-      </c>
-      <c r="D315" t="s">
-        <v>836</v>
-      </c>
       <c r="E315" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H315" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I315" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11005,25 +11005,25 @@
         <v>312</v>
       </c>
       <c r="C316" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D316" t="s">
         <v>356</v>
       </c>
       <c r="E316" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H316" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I316" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11034,22 +11034,22 @@
         <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D317" t="s">
         <v>405</v>
       </c>
       <c r="E317" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I317" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11060,19 +11060,19 @@
         <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D318" t="s">
         <v>406</v>
       </c>
       <c r="E318" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F318">
         <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11083,22 +11083,22 @@
         <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D319" t="s">
         <v>407</v>
       </c>
       <c r="E319" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F319">
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I319" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11109,19 +11109,19 @@
         <v>316</v>
       </c>
       <c r="C320" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D320" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E320" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F320">
         <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11132,19 +11132,19 @@
         <v>317</v>
       </c>
       <c r="C321" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D321" t="s">
         <v>408</v>
       </c>
       <c r="E321" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F321">
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11155,22 +11155,22 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D322" t="s">
         <v>409</v>
       </c>
       <c r="E322" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F322">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I322" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11181,22 +11181,22 @@
         <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D323" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E323" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F323">
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I323" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11207,22 +11207,22 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D324" t="s">
         <v>410</v>
       </c>
       <c r="E324" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F324">
         <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I324" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11233,19 +11233,19 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D325" t="s">
         <v>411</v>
       </c>
       <c r="E325" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F325">
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,19 +11256,19 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D326" t="s">
         <v>412</v>
       </c>
       <c r="E326" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F326">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11279,19 +11279,19 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D327" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E327" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H327" t="s">
         <v>322</v>
@@ -11305,19 +11305,19 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D328" t="s">
         <v>413</v>
       </c>
       <c r="E328" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F328">
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H328" t="s">
         <v>322</v>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F726F59-E42D-46D5-AD07-409FA9923B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605680D5-17E9-45DB-B59A-97E637870A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -214,9 +214,6 @@
     <t>(Y/N)</t>
   </si>
   <si>
-    <t>Chicken Eggs Sold</t>
-  </si>
-  <si>
     <t>Chicken Headcount Net Change</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Sale Price</t>
   </si>
   <si>
-    <t>Eggs Sold</t>
-  </si>
-  <si>
     <t>Eggs Per Day</t>
   </si>
   <si>
@@ -338,6 +332,18 @@
   </si>
   <si>
     <t>Price of last sale</t>
+  </si>
+  <si>
+    <t>Eggs Sold (Y/N)</t>
+  </si>
+  <si>
+    <t>Eggs Sold (Qty)</t>
+  </si>
+  <si>
+    <t>Household Sold Eggs</t>
+  </si>
+  <si>
+    <t>Number of Chicken Eggs Sold</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -757,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -789,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -810,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -821,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -842,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -853,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -885,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -906,7 +912,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -917,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -938,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -949,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -970,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -1013,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1034,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -1066,7 +1072,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -1109,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1130,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1141,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1159,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
@@ -1191,7 +1197,7 @@
         <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -1220,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1249,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605680D5-17E9-45DB-B59A-97E637870A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFE42B-8C32-47E7-9E03-00C34CF20E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -79,9 +79,6 @@
     <t>area_Chickens</t>
   </si>
   <si>
-    <t>prettyName</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -160,123 +157,21 @@
     <t>Determined by subtracting the number of chickens at the end of the survey period from the number of chickens at the beginning of the season</t>
   </si>
   <si>
-    <t>S4_POULTRY</t>
-  </si>
-  <si>
-    <t>Live Chickens Sold</t>
-  </si>
-  <si>
-    <t>Chicken Births</t>
-  </si>
-  <si>
-    <t>Chicken Deaths</t>
-  </si>
-  <si>
-    <t>Chicken Sale Price</t>
-  </si>
-  <si>
     <t>Chickens Slaughtered</t>
   </si>
   <si>
-    <t>Number of Chickens</t>
-  </si>
-  <si>
     <t>Chickens Vaccinated</t>
   </si>
   <si>
-    <t>Births</t>
-  </si>
-  <si>
-    <t>Deaths</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Slaughtered</t>
-  </si>
-  <si>
-    <t>Vaccinated</t>
-  </si>
-  <si>
-    <t>Eggs collected per day (avg)</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Chicken Egg Price</t>
-  </si>
-  <si>
-    <t>(KHR)</t>
-  </si>
-  <si>
-    <t>(Y/N)</t>
-  </si>
-  <si>
     <t>Chicken Headcount Net Change</t>
   </si>
   <si>
-    <t>Net change in headcount</t>
-  </si>
-  <si>
     <t>Chicken Egg Production, Annual</t>
   </si>
   <si>
-    <t>Eggs sold by holding</t>
-  </si>
-  <si>
-    <t>Chicken Egg Sale Revenue</t>
-  </si>
-  <si>
-    <t>Chicken Sale Revenue</t>
-  </si>
-  <si>
-    <t>Area for Raising Chickens</t>
-  </si>
-  <si>
-    <t>Annualized,\nif production each day</t>
-  </si>
-  <si>
-    <t>(KHR)\nimputed price/head, live sales</t>
-  </si>
-  <si>
-    <t>Area to manage flock\n(TLU-adjusted)</t>
-  </si>
-  <si>
-    <t>Long Name</t>
-  </si>
-  <si>
     <t>labelName</t>
   </si>
   <si>
-    <t>Animals Owned</t>
-  </si>
-  <si>
-    <t>Sale Price</t>
-  </si>
-  <si>
-    <t>Eggs Per Day</t>
-  </si>
-  <si>
-    <t>Price of Eggs</t>
-  </si>
-  <si>
-    <t>Animals Born</t>
-  </si>
-  <si>
-    <t>Animals Died</t>
-  </si>
-  <si>
-    <t>Animals Sold</t>
-  </si>
-  <si>
-    <t>Animals Slaughtered</t>
-  </si>
-  <si>
-    <t>Animals Vaccinated</t>
-  </si>
-  <si>
     <t>Flock Growth</t>
   </si>
   <si>
@@ -286,12 +181,6 @@
     <t>Egg Revenue</t>
   </si>
   <si>
-    <t>Animal Revenue</t>
-  </si>
-  <si>
-    <t>Animal Land Area</t>
-  </si>
-  <si>
     <t>How many chickens died in the past year?</t>
   </si>
   <si>
@@ -328,37 +217,316 @@
     <t>How much area do you dedicate to managing chickens?</t>
   </si>
   <si>
-    <t>Chicken Eggs Collected per Day (Average)</t>
-  </si>
-  <si>
-    <t>Price of last sale</t>
-  </si>
-  <si>
     <t>Eggs Sold (Y/N)</t>
   </si>
   <si>
     <t>Eggs Sold (Qty)</t>
   </si>
   <si>
-    <t>Household Sold Eggs</t>
-  </si>
-  <si>
     <t>Number of Chicken Eggs Sold</t>
+  </si>
+  <si>
+    <t>mortality_rt_chickens</t>
+  </si>
+  <si>
+    <t>vax_pct_chickens</t>
+  </si>
+  <si>
+    <t>yield_Chickens</t>
+  </si>
+  <si>
+    <t>net_growth_pct_Chickens</t>
+  </si>
+  <si>
+    <t>bought_received_Chickens</t>
+  </si>
+  <si>
+    <t>for_sale_live_Chickens</t>
+  </si>
+  <si>
+    <t>trt_int_parasite_Chickens</t>
+  </si>
+  <si>
+    <t>trt_ext_parasite_Chickens</t>
+  </si>
+  <si>
+    <t>trt_vax_spending_Chickens</t>
+  </si>
+  <si>
+    <t>cur_trt_chickens</t>
+  </si>
+  <si>
+    <t>cur_trt_spending_Chickens</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>qty_rice_harvested</t>
+  </si>
+  <si>
+    <t>area_rice_harvested</t>
+  </si>
+  <si>
+    <t>mortality_rt_cattle</t>
+  </si>
+  <si>
+    <t>vax_pct_cattle</t>
+  </si>
+  <si>
+    <t>provision_feed_cattle</t>
+  </si>
+  <si>
+    <t>trt_int_parasite_Cattle</t>
+  </si>
+  <si>
+    <t>trt_ext_parasite_Cattle</t>
+  </si>
+  <si>
+    <t>trt_vax_spending_Cattle</t>
+  </si>
+  <si>
+    <t>cur_trt_Cattle</t>
+  </si>
+  <si>
+    <t>cur_trt_spending_Cattle</t>
+  </si>
+  <si>
+    <t>productivity_cattle</t>
+  </si>
+  <si>
+    <t>num_cattle</t>
+  </si>
+  <si>
+    <t>slghtr_value_Cattle</t>
+  </si>
+  <si>
+    <t>meat_unit_value_Cattle</t>
+  </si>
+  <si>
+    <t>prod_value_Cattle</t>
+  </si>
+  <si>
+    <t>sale_revenue_Cattle</t>
+  </si>
+  <si>
+    <t>births_Cattle</t>
+  </si>
+  <si>
+    <t>net_growth_pct_Cattle</t>
+  </si>
+  <si>
+    <t>for_draught_cattle</t>
+  </si>
+  <si>
+    <t>for_breed_cattle</t>
+  </si>
+  <si>
+    <t>yield_Cattle</t>
+  </si>
+  <si>
+    <t>Chickens Owned</t>
+  </si>
+  <si>
+    <t>Chickens Born</t>
+  </si>
+  <si>
+    <t>Chickens Died</t>
+  </si>
+  <si>
+    <t>axisName</t>
+  </si>
+  <si>
+    <t>Chickens Sold</t>
+  </si>
+  <si>
+    <t>Chickeen Sale Price</t>
+  </si>
+  <si>
+    <t>Daily Egg Productivity</t>
+  </si>
+  <si>
+    <t>Egg Price</t>
+  </si>
+  <si>
+    <t>Animal Revenue (Chicken)</t>
+  </si>
+  <si>
+    <t>Chicken Area</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price (KHR/kg)</t>
+  </si>
+  <si>
+    <t>Number of Chickens Vaccinated (Household Average)</t>
+  </si>
+  <si>
+    <t>Number of Chickens Slaughtered (Household Average)</t>
+  </si>
+  <si>
+    <t>Number of Live Chickens Sold (Household Average)</t>
+  </si>
+  <si>
+    <t>Number of Chicken Deaths (Household Average)</t>
+  </si>
+  <si>
+    <t>Number of Chicken Births (Household Average)</t>
+  </si>
+  <si>
+    <t>Number of Chickens Owned (Household Average)</t>
+  </si>
+  <si>
+    <t>Chicken Eggs Collected per Day (Household Average)</t>
+  </si>
+  <si>
+    <t>Chicken Egg Price (KHR/kg)</t>
+  </si>
+  <si>
+    <t>Household Sold Eggs (Y/N)</t>
+  </si>
+  <si>
+    <t>Chicken Egg Sale Revenue (KHR)</t>
+  </si>
+  <si>
+    <t>Chicken Sale Revenue (KHR)</t>
+  </si>
+  <si>
+    <t>Area for Raising Chickens (ha)</t>
+  </si>
+  <si>
+    <t>Chicken Mortality Rate</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination Rate</t>
+  </si>
+  <si>
+    <t>Chicken Productivity (kg/ha)</t>
+  </si>
+  <si>
+    <t>Flock Growth Rate</t>
+  </si>
+  <si>
+    <t>Chickens Purchased or Received</t>
+  </si>
+  <si>
+    <t>Chickens Sold (Y/N)</t>
+  </si>
+  <si>
+    <t>Internal Parasite Treatment (Y/N)</t>
+  </si>
+  <si>
+    <t>External Parasite Treatment (Y/N)</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination Cost</t>
+  </si>
+  <si>
+    <t>Chicken Medication Purchase (Y/N)</t>
+  </si>
+  <si>
+    <t>Cost of Medication for Chickens</t>
+  </si>
+  <si>
+    <t>Rice Harvest (kg)</t>
+  </si>
+  <si>
+    <t>Cattle Mortality Rate</t>
+  </si>
+  <si>
+    <t>Cattle Vaccination Rate</t>
+  </si>
+  <si>
+    <t>Cattle Feed Provisioning (Y/N)</t>
+  </si>
+  <si>
+    <t>Cattle Vaccination Cost</t>
+  </si>
+  <si>
+    <t>Cattle Medication Purchase (Y/N)</t>
+  </si>
+  <si>
+    <t>Cost of Cattle Medication</t>
+  </si>
+  <si>
+    <t>Cattle Productivity</t>
+  </si>
+  <si>
+    <t>Herd Size</t>
+  </si>
+  <si>
+    <t>Value of Cattle Slaughtered</t>
+  </si>
+  <si>
+    <t>Value of Cattle Meat (KHR/kg)</t>
+  </si>
+  <si>
+    <t>Value of Cattle Produced</t>
+  </si>
+  <si>
+    <t>Revenue from Cattle Sold</t>
+  </si>
+  <si>
+    <t>Number of Cattle Born</t>
+  </si>
+  <si>
+    <t>Herd Growth Rate</t>
+  </si>
+  <si>
+    <t>Cattle Used for Breeding (Y/N)</t>
+  </si>
+  <si>
+    <t>Cattle Used for Draughting (Y/N)</t>
+  </si>
+  <si>
+    <t>Cattle Yield</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Area of Rice Harvested (ha)</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency/kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,15 +546,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{74244584-B325-4AF3-8C66-CE35074E8EFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,14 +884,13 @@
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -749,13 +919,10 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -763,31 +930,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -795,31 +959,28 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -827,31 +988,28 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -859,31 +1017,28 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -891,31 +1046,28 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -923,31 +1075,28 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -955,31 +1104,28 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -987,31 +1133,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1019,31 +1162,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1051,31 +1191,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1083,31 +1220,28 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1115,31 +1249,28 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1147,28 +1278,25 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1176,31 +1304,28 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1208,28 +1333,25 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1237,25 +1359,755 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
-        <v>101</v>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFE42B-8C32-47E7-9E03-00C34CF20E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AECBE4-57C3-487A-B697-455604DB1F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="960" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="162">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">currency </t>
+  </si>
+  <si>
+    <t>poultry_livestock</t>
   </si>
 </sst>
 </file>
@@ -872,10 +875,10 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +939,7 @@
         <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -965,7 +968,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -994,7 +997,7 @@
         <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1023,7 +1026,7 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1052,7 +1055,7 @@
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1081,7 +1084,7 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1226,7 +1229,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1255,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1284,7 +1287,7 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1310,7 +1313,7 @@
         <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1339,7 +1342,7 @@
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1391,7 +1394,7 @@
         <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1460,7 +1463,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1506,7 +1509,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1529,7 +1532,7 @@
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1552,7 +1555,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1575,7 +1578,7 @@
         <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1598,7 +1601,7 @@
         <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1621,7 +1624,7 @@
         <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1644,7 +1647,7 @@
         <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1667,7 +1670,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1713,7 +1716,7 @@
         <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1736,7 +1739,7 @@
         <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1759,7 +1762,7 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1782,7 +1785,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1805,7 +1808,7 @@
         <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1828,7 +1831,7 @@
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1851,7 +1854,7 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1874,7 +1877,7 @@
         <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1894,7 +1897,7 @@
         <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1917,7 +1920,7 @@
         <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1940,7 +1943,7 @@
         <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1963,7 +1966,7 @@
         <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1986,7 +1989,7 @@
         <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2009,7 +2012,7 @@
         <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2032,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2055,7 +2058,7 @@
         <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2078,7 +2081,7 @@
         <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2101,7 +2104,7 @@
         <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>1</v>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89EF88C-5405-4427-B3D4-B90510B1E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B14DC7-289C-4A28-94FB-8C10E85BFCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3255" windowWidth="23355" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="2760" windowWidth="23355" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="243">
   <si>
     <t>indicatorCategory</t>
   </si>
@@ -249,9 +249,6 @@
     <t>mortality_rt_chickens</t>
   </si>
   <si>
-    <t>net_growth_pct_Chickens</t>
-  </si>
-  <si>
     <t>bought_received_Chickens</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>Chicken Vaccination Rate</t>
   </si>
   <si>
-    <t>Flock Growth Rate</t>
-  </si>
-  <si>
     <t>Chickens Purchased or Received</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>Live Sale Revenue (Chicken)</t>
   </si>
   <si>
-    <t xml:space="preserve">Net Growth Rate </t>
-  </si>
-  <si>
     <t>Chicken Vaccination Cost (KHR)</t>
   </si>
   <si>
@@ -561,12 +552,6 @@
     <t>Cattle Born</t>
   </si>
   <si>
-    <t>Cattle Used for Draugh (Y/N)</t>
-  </si>
-  <si>
-    <t>Cattle Used for Draught (Y/N)</t>
-  </si>
-  <si>
     <t>Daily Egg Production</t>
   </si>
   <si>
@@ -708,9 +693,6 @@
     <t>Determined by dividing "Chickens vaccinated" by "chickens owned (total)"</t>
   </si>
   <si>
-    <t>Determined by dividing "Flock Growth" by "Chickens Owned (Start)"</t>
-  </si>
-  <si>
     <t>How many chickens births did the holding have?</t>
   </si>
   <si>
@@ -829,16 +811,51 @@
   </si>
   <si>
     <t>vax_pct_Chickens</t>
+  </si>
+  <si>
+    <t>Flock Net Growth (Head)</t>
+  </si>
+  <si>
+    <t>Flock Net Growth</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>provision_feed_Chickens</t>
+  </si>
+  <si>
+    <t>Cattle Used for Draughting (Y/N)</t>
+  </si>
+  <si>
+    <t>Use of Chicken Feed</t>
+  </si>
+  <si>
+    <t>Percent of Households Providing Chicken Feed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1040,53 +1057,55 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Enabling condition" xfId="9" xr:uid="{16A541CE-23F2-4717-B94D-AC194AA37789}"/>
@@ -1457,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -1505,10 +1524,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
         <v>35</v>
@@ -1522,13 +1541,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1540,10 +1559,10 @@
         <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1551,16 +1570,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1576,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L3" s="4"/>
     </row>
@@ -1585,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1610,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L4" s="4"/>
     </row>
@@ -1622,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1640,10 +1659,10 @@
         <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1654,13 +1673,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1672,10 +1691,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1686,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1704,10 +1723,10 @@
         <v>28</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,13 +1737,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1736,10 +1755,10 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1753,10 +1772,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1768,10 +1787,10 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1785,10 +1804,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1800,10 +1819,10 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1814,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1832,10 +1851,10 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1846,13 +1865,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1864,10 +1883,10 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1881,10 +1900,10 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1896,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1913,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1928,7 +1947,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1936,16 +1955,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1960,7 +1979,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1977,7 +1996,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1992,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2006,10 +2025,10 @@
         <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2024,7 +2043,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,13 +2054,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2056,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2064,16 +2083,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2088,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,22 +2118,22 @@
         <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
@@ -2123,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,25 +2150,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>36</v>
@@ -2158,42 +2177,40 @@
         <v>36</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>114</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,16 +2218,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2219,11 +2236,11 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2231,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2252,10 +2269,10 @@
         <v>28</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2263,16 +2280,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2282,10 +2299,10 @@
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2293,16 +2310,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2312,10 +2329,10 @@
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2323,29 +2340,29 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,16 +2370,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2372,10 +2389,10 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2383,110 +2400,110 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2501,24 +2518,24 @@
         <v>36</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2533,33 +2550,33 @@
         <v>36</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>36</v>
@@ -2568,33 +2585,33 @@
         <v>36</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>36</v>
@@ -2603,24 +2620,24 @@
         <v>36</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2629,30 +2646,30 @@
         <v>22</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2661,27 +2678,27 @@
         <v>22</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2690,56 +2707,56 @@
         <v>22</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2748,56 +2765,56 @@
         <v>22</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2812,30 +2829,30 @@
         <v>36</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>36</v>
@@ -2844,30 +2861,30 @@
         <v>36</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>36</v>
@@ -2876,30 +2893,30 @@
         <v>36</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>36</v>
@@ -2908,30 +2925,30 @@
         <v>36</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>36</v>
@@ -2940,24 +2957,24 @@
         <v>36</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2966,39 +2983,39 @@
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>98</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>36</v>
@@ -3007,24 +3024,24 @@
         <v>36</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3033,27 +3050,27 @@
         <v>22</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3062,17 +3079,49 @@
         <v>22</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K50" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>239</v>
       </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3090,12 +3139,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13FE65-D63A-4B24-9DEE-30DCF465F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494E414D-EE4D-4B69-B32D-00FA4192D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42555" yWindow="1650" windowWidth="23355" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -963,10 +963,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1149,47 +1156,48 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
@@ -1525,10 +1533,10 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2688,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3664,7 +3672,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494E414D-EE4D-4B69-B32D-00FA4192D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD12465-4B55-4068-909B-9C586A48EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="870" windowWidth="21705" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="309">
   <si>
     <t>Poultry</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Eggs Sold (Y/N)</t>
   </si>
   <si>
-    <t>Eggs Sold (Qty)</t>
-  </si>
-  <si>
     <t>Number of Chicken Eggs Sold</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
     <t>Chicken Sale Price (head)</t>
   </si>
   <si>
-    <t>Chicken Sale Price (kg)</t>
-  </si>
-  <si>
     <t>Chicken Live Sale Price (KHR/kg, Average)</t>
   </si>
   <si>
@@ -957,16 +951,32 @@
   </si>
   <si>
     <t>animal_area</t>
+  </si>
+  <si>
+    <t>Chicken Sale Price</t>
+  </si>
+  <si>
+    <t>Eggs Sold</t>
+  </si>
+  <si>
+    <t>Chicken Morality Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1156,47 +1166,48 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1530,13 +1541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1576,16 +1587,16 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="L1" t="s">
         <v>33</v>
@@ -1598,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1619,21 +1630,21 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -1656,19 +1667,19 @@
         <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -1691,7 +1702,7 @@
         <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1700,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1721,10 +1732,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1732,10 +1743,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1753,10 +1764,10 @@
         <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1764,10 +1775,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -1782,16 +1793,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1799,10 +1810,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1820,10 +1831,10 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1834,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1852,10 +1863,10 @@
         <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,7 +1877,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1881,16 +1892,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1898,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1919,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1930,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1951,10 +1962,10 @@
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1965,7 +1976,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -1983,10 +1994,10 @@
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2012,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -2021,18 +2032,18 @@
         <v>34</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -2053,39 +2064,39 @@
         <v>34</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,10 +2104,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -2117,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2128,7 +2139,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -2137,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>34</v>
@@ -2152,7 +2163,7 @@
         <v>34</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,10 +2171,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -2172,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2184,50 +2195,50 @@
         <v>34</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -2236,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2252,18 +2263,18 @@
         <v>34</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -2272,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2288,18 +2299,18 @@
         <v>34</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2308,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2324,18 +2335,18 @@
         <v>34</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -2350,24 +2361,24 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -2385,21 +2396,21 @@
         <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -2414,25 +2425,25 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -2447,25 +2458,25 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -2474,31 +2485,31 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2513,25 +2524,25 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2540,64 +2551,64 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2617,19 +2628,19 @@
         <v>34</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2637,13 +2648,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>34</v>
@@ -2652,18 +2663,18 @@
         <v>34</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>0</v>
@@ -2672,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2684,85 +2695,85 @@
         <v>34</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2774,91 +2785,91 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2876,21 +2887,21 @@
         <v>34</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2908,30 +2919,30 @@
         <v>34</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2944,30 +2955,30 @@
         <v>34</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2980,21 +2991,21 @@
         <v>34</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3006,27 +3017,27 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3038,27 +3049,27 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3070,59 +3081,59 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3134,59 +3145,59 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3204,27 +3215,27 @@
         <v>34</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3236,27 +3247,27 @@
         <v>34</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3268,33 +3279,33 @@
         <v>34</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>34</v>
@@ -3303,27 +3314,27 @@
         <v>34</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3335,21 +3346,21 @@
         <v>34</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3361,36 +3372,36 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3403,21 +3414,21 @@
         <v>34</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3429,27 +3440,27 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3461,27 +3472,27 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3496,24 +3507,24 @@
         <v>25</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3525,62 +3536,62 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="L61" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3592,30 +3603,30 @@
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3627,27 +3638,27 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3659,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>34</v>
@@ -3668,11 +3679,37 @@
         <v>34</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD12465-4B55-4068-909B-9C586A48EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C60E2-7ABC-450E-A093-AA92A8B76ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="870" windowWidth="21705" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="308">
   <si>
     <t>Poultry</t>
   </si>
@@ -957,26 +957,16 @@
   </si>
   <si>
     <t>Eggs Sold</t>
-  </si>
-  <si>
-    <t>Chicken Morality Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1166,48 +1156,47 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1541,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,34 +3671,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C60E2-7ABC-450E-A093-AA92A8B76ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33E1D84-CFE5-4056-9605-4C6F68795F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="311">
   <si>
     <t>Poultry</t>
   </si>
@@ -101,9 +101,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>currency/kg</t>
-  </si>
-  <si>
     <t>S4_Q14</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>ha</t>
   </si>
   <si>
-    <t xml:space="preserve">currency </t>
-  </si>
-  <si>
     <t>Number of Chickens Owned (End of Survey Timeframe)</t>
   </si>
   <si>
@@ -761,9 +752,6 @@
     <t>Chicken Live Sale Price (KHR/head, Average)</t>
   </si>
   <si>
-    <t>currency/head</t>
-  </si>
-  <si>
     <t>Determined by multiplying "chicken sale price (KHR/kg)" by an average weight per bird</t>
   </si>
   <si>
@@ -957,6 +945,27 @@
   </si>
   <si>
     <t>Eggs Sold</t>
+  </si>
+  <si>
+    <t>hh_vars</t>
+  </si>
+  <si>
+    <t>KHR/kg</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>KHR/head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHR </t>
+  </si>
+  <si>
+    <t>Chickens</t>
+  </si>
+  <si>
+    <t>Cattle</t>
   </si>
 </sst>
 </file>
@@ -1533,10 +1542,10 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1576,19 +1585,19 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1598,10 +1607,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1610,30 +1619,30 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -1641,8 +1650,8 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
+      <c r="F3" t="s">
+        <v>309</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1650,25 +1659,25 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -1676,8 +1685,8 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+      <c r="F4" t="s">
+        <v>309</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1685,13 +1694,13 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1700,10 +1709,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1712,19 +1721,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1732,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1744,19 +1753,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1764,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -1776,22 +1785,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1799,10 +1808,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1811,19 +1820,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1831,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1843,19 +1852,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1863,10 +1872,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1875,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1898,10 +1907,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1910,19 +1919,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1930,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1942,19 +1951,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1962,10 +1971,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -1980,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1994,10 +2003,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -2006,33 +2015,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -2041,31 +2050,31 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2073,19 +2082,19 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,10 +2102,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -2105,19 +2114,19 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2125,10 +2134,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -2137,22 +2146,22 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,10 +2169,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -2172,62 +2181,62 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -2236,34 +2245,34 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -2272,34 +2281,34 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2308,34 +2317,34 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -2344,30 +2353,30 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -2382,24 +2391,24 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -2414,25 +2423,25 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -2447,25 +2456,25 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -2474,31 +2483,31 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2513,25 +2522,25 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2540,63 +2549,63 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
@@ -2605,30 +2614,30 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
@@ -2637,132 +2646,132 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K35" t="s">
-        <v>286</v>
-      </c>
       <c r="L35" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" t="s">
-        <v>287</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2774,227 +2783,227 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3006,27 +3015,27 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3038,27 +3047,27 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3070,59 +3079,59 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3134,59 +3143,59 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3198,226 +3207,226 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
-        <v>20</v>
+      <c r="F55" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3429,27 +3438,27 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3461,27 +3470,27 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3493,27 +3502,27 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3525,150 +3534,150 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="K62" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33E1D84-CFE5-4056-9605-4C6F68795F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C69DE1-3446-467C-96CE-65B9456F4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="312">
   <si>
     <t>Poultry</t>
   </si>
@@ -272,15 +272,9 @@
     <t>External Parasite Treatment (Y/N)</t>
   </si>
   <si>
-    <t>Chicken Vaccination Cost</t>
-  </si>
-  <si>
     <t>Chicken Medication Purchase (Y/N)</t>
   </si>
   <si>
-    <t>Cost of Medication for Chickens</t>
-  </si>
-  <si>
     <t>Rice Harvest (kg)</t>
   </si>
   <si>
@@ -290,15 +284,9 @@
     <t>Cattle Vaccination Rate</t>
   </si>
   <si>
-    <t>Cattle Vaccination Cost</t>
-  </si>
-  <si>
     <t>Cattle Medication Purchase (Y/N)</t>
   </si>
   <si>
-    <t>Cost of Cattle Medication</t>
-  </si>
-  <si>
     <t>Value of Cattle Produced</t>
   </si>
   <si>
@@ -413,18 +401,6 @@
     <t xml:space="preserve">Net Growth Rate </t>
   </si>
   <si>
-    <t>Chicken Vaccination Cost (KHR)</t>
-  </si>
-  <si>
-    <t>Cost of Medication for Chickens (KHR)</t>
-  </si>
-  <si>
-    <t>Cattle Vaccination Cost (KHR)</t>
-  </si>
-  <si>
-    <t>Cost of Cattle Medication (KHR)</t>
-  </si>
-  <si>
     <t>Unit Value of Slaughtered Cattle (KHR/head)</t>
   </si>
   <si>
@@ -966,6 +942,33 @@
   </si>
   <si>
     <t>Cattle</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination Expenditure</t>
+  </si>
+  <si>
+    <t>Chicken Vaccination Expenditure (KHR)</t>
+  </si>
+  <si>
+    <t>Chicken Medication Expenditures</t>
+  </si>
+  <si>
+    <t>Chicken Medication Expenditures (KHR)</t>
+  </si>
+  <si>
+    <t>Cattle Vaccination Expenditures</t>
+  </si>
+  <si>
+    <t>Cattle Vaccination Expenditures (KHR)</t>
+  </si>
+  <si>
+    <t>Cattle Medication Expenditures</t>
+  </si>
+  <si>
+    <t>Cattle Medication Expenditures (KHR)</t>
+  </si>
+  <si>
+    <t>Eggs/Day</t>
   </si>
 </sst>
 </file>
@@ -1541,11 +1544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,16 +1588,16 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -1610,7 +1613,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1628,21 +1631,21 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1665,19 +1668,19 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -1686,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1700,7 +1703,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1712,7 +1715,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1721,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1730,10 +1733,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1744,7 +1747,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1762,10 +1765,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1776,7 +1779,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -1785,22 +1788,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1808,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1829,10 +1832,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1843,7 +1846,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1852,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1861,10 +1864,10 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1875,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1884,22 +1887,22 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1907,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1928,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1942,7 +1945,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1951,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1960,10 +1963,10 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1992,10 +1995,10 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2015,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
@@ -2030,18 +2033,18 @@
         <v>33</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -2050,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2062,18 +2065,18 @@
         <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>0</v>
@@ -2082,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2094,7 +2097,7 @@
         <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2102,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -2114,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2126,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2146,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>33</v>
@@ -2161,7 +2164,7 @@
         <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2169,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>71</v>
@@ -2181,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2193,18 +2196,18 @@
         <v>33</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
@@ -2213,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2225,12 +2228,12 @@
         <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>72</v>
@@ -2245,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2261,12 +2264,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -2281,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2297,7 +2300,7 @@
         <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,7 +2311,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2317,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2333,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2353,19 +2356,19 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2394,10 +2397,10 @@
         <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2423,14 +2426,14 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,14 +2459,14 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2471,10 +2474,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -2483,31 +2486,31 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2522,14 +2525,14 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2537,10 +2540,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2549,31 +2552,31 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>0</v>
@@ -2582,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2594,18 +2597,18 @@
         <v>33</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
@@ -2614,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2626,18 +2629,18 @@
         <v>33</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
@@ -2646,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>33</v>
@@ -2661,27 +2664,27 @@
         <v>33</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2693,82 +2696,82 @@
         <v>33</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -2783,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2797,31 +2800,31 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2829,42 +2832,42 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -2873,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2885,18 +2888,18 @@
         <v>33</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
@@ -2905,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2917,18 +2920,18 @@
         <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
@@ -2937,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2953,18 +2956,18 @@
         <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -2973,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2989,18 +2992,18 @@
         <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
@@ -3015,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3047,13 +3050,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3079,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3093,10 +3096,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -3105,19 +3108,19 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3125,10 +3128,10 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -3143,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3157,10 +3160,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -3169,30 +3172,30 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
@@ -3213,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,10 +3224,10 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -3233,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3245,18 +3248,18 @@
         <v>33</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
@@ -3265,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3277,7 +3280,7 @@
         <v>33</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3285,10 +3288,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -3297,13 +3300,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>33</v>
@@ -3312,7 +3315,7 @@
         <v>33</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,10 +3323,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -3332,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3344,7 +3347,7 @@
         <v>33</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,10 +3355,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
@@ -3364,19 +3367,19 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,10 +3387,10 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -3396,10 +3399,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3412,18 +3415,18 @@
         <v>33</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
@@ -3438,24 +3441,24 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
@@ -3470,24 +3473,24 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>50</v>
@@ -3505,21 +3508,21 @@
         <v>24</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -3534,27 +3537,27 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>50</v>
@@ -3563,30 +3566,30 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>50</v>
@@ -3595,33 +3598,33 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>50</v>
@@ -3630,30 +3633,30 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>50</v>
@@ -3662,13 +3665,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>33</v>
@@ -3677,7 +3680,7 @@
         <v>33</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C69DE1-3446-467C-96CE-65B9456F4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534396D9-EC57-48A5-9CC0-04FF3A1F2A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="313">
   <si>
     <t>Poultry</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Egg Price</t>
   </si>
   <si>
-    <t>Household Sold Eggs (Y/N)</t>
-  </si>
-  <si>
     <t>Chicken Egg Sale Revenue (KHR)</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>Determined by multiplying "percentage of collected eggs that were sold" [questionnaire] by "Eggs per year"</t>
   </si>
   <si>
-    <t>Chicken Egg Price (KHR/egg)</t>
-  </si>
-  <si>
     <t>Determined by multiplying "eggs sold (qty)" by "egg price (KHR/egg)"</t>
   </si>
   <si>
@@ -969,6 +963,15 @@
   </si>
   <si>
     <t>Eggs/Day</t>
+  </si>
+  <si>
+    <t>KHR/Egg</t>
+  </si>
+  <si>
+    <t>Chicken Egg Price</t>
+  </si>
+  <si>
+    <t>Households Selling Eggs (Y/N)</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1548,10 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,16 +1591,16 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -1613,7 +1616,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1622,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1631,21 +1634,21 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -1654,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1668,20 +1671,20 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1703,7 +1706,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1715,7 +1718,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1724,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1733,10 +1736,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1747,7 +1750,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1756,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1765,10 +1768,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1779,7 +1782,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -1788,22 +1791,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1811,10 +1814,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1823,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1832,10 +1835,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1846,7 +1849,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1855,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1864,10 +1867,10 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1878,7 +1881,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1887,22 +1890,22 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1910,10 +1913,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1922,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1931,10 +1934,10 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1945,7 +1948,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1963,10 +1966,10 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1977,7 +1980,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -1995,10 +1998,10 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2018,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
@@ -2033,18 +2036,18 @@
         <v>33</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -2053,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2065,39 +2068,39 @@
         <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2105,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2129,7 +2132,7 @@
         <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2140,7 +2143,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -2149,13 +2152,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>33</v>
@@ -2164,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2172,10 +2175,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2196,50 +2199,50 @@
         <v>33</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>298</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -2248,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2264,18 +2267,18 @@
         <v>33</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -2284,10 +2287,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2300,7 +2303,7 @@
         <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2320,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2336,7 +2339,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,10 +2347,10 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -2356,19 +2359,19 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2376,10 +2379,10 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -2397,10 +2400,10 @@
         <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,10 +2411,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -2426,14 +2429,14 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2441,10 +2444,10 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -2459,14 +2462,14 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,10 +2477,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -2486,31 +2489,31 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -2525,14 +2528,14 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2540,10 +2543,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2552,32 +2555,32 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2597,19 +2600,19 @@
         <v>33</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2629,19 +2632,19 @@
         <v>33</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2649,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>33</v>
@@ -2664,27 +2667,27 @@
         <v>33</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2696,82 +2699,82 @@
         <v>33</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -2786,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,31 +2803,31 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2832,42 +2835,40 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -2876,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2888,18 +2889,18 @@
         <v>33</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
@@ -2908,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2920,18 +2921,18 @@
         <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
@@ -2940,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2956,18 +2957,18 @@
         <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -2976,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2992,18 +2993,18 @@
         <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
@@ -3018,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3032,10 +3033,10 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -3050,13 +3051,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,10 +3065,10 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -3082,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3096,10 +3097,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -3108,19 +3109,19 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3128,10 +3129,10 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -3146,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3160,10 +3161,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -3172,30 +3173,30 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
@@ -3216,7 +3217,7 @@
         <v>33</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3224,10 +3225,10 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -3236,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3248,18 +3249,18 @@
         <v>33</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
@@ -3268,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3280,7 +3281,7 @@
         <v>33</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3288,10 +3289,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -3300,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>33</v>
@@ -3315,7 +3316,7 @@
         <v>33</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3323,10 +3324,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -3335,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3347,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3355,10 +3356,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
@@ -3367,19 +3368,19 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3387,10 +3388,10 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -3399,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3415,18 +3416,18 @@
         <v>33</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
@@ -3441,24 +3442,24 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
@@ -3473,24 +3474,24 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>50</v>
@@ -3508,21 +3509,21 @@
         <v>24</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -3537,27 +3538,27 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>50</v>
@@ -3566,30 +3567,30 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>50</v>
@@ -3598,33 +3599,33 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>50</v>
@@ -3633,30 +3634,30 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>50</v>
@@ -3665,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>33</v>
@@ -3680,7 +3681,7 @@
         <v>33</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534396D9-EC57-48A5-9CC0-04FF3A1F2A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2B8672-916E-4AC7-9D48-EB4CBC8CBD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="333">
   <si>
     <t>Poultry</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Cattle Used for Draugh (Y/N)</t>
   </si>
   <si>
-    <t>Cattle Used for Draught (Y/N)</t>
-  </si>
-  <si>
     <t>Daily Egg Production</t>
   </si>
   <si>
@@ -972,16 +969,86 @@
   </si>
   <si>
     <t>Households Selling Eggs (Y/N)</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Flock Size</t>
+  </si>
+  <si>
+    <t>Sales/Income</t>
+  </si>
+  <si>
+    <t>Egg Production</t>
+  </si>
+  <si>
+    <t>Animal Health</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Crop Production</t>
+  </si>
+  <si>
+    <t>Herd Size</t>
+  </si>
+  <si>
+    <t>provision_feed_Chickens</t>
+  </si>
+  <si>
+    <t>Chickens Received Feed (Y/N)</t>
+  </si>
+  <si>
+    <t>Percent of Households Selling Chickens</t>
+  </si>
+  <si>
+    <t>Internal Parasite Treatment  (% of households)</t>
+  </si>
+  <si>
+    <t>External Parasite Treatment  (% of households)</t>
+  </si>
+  <si>
+    <t>Chicken Medication Purchase  (% of households)</t>
+  </si>
+  <si>
+    <t>Cattle Received Feed (% of households)</t>
+  </si>
+  <si>
+    <t>External Parasite Treatment (% of households)</t>
+  </si>
+  <si>
+    <t>Cattle Medication Purchase  (% of households)</t>
+  </si>
+  <si>
+    <t>Cattle Used for Draught (% of households)</t>
+  </si>
+  <si>
+    <t>Cattle Used for Breeding  (% of households)</t>
+  </si>
+  <si>
+    <t>Chickens Receiving Feed</t>
+  </si>
+  <si>
+    <t>Production Methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1171,47 +1238,48 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1545,2147 +1613,2371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>292</v>
+      <c r="B8" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>131</v>
+      <c r="B11" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>309</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>312</v>
-      </c>
       <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>286</v>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>295</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>295</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>216</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" t="s">
-        <v>33</v>
-      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
-        <v>75</v>
+      <c r="B25" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>76</v>
+      <c r="B26" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>21</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>77</v>
+      <c r="B27" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>217</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>21</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K35" t="s">
-        <v>272</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K36" t="s">
-        <v>273</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
+      <c r="B38" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>87</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D39" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>89</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>33</v>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>33</v>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
+        <v>157</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
       </c>
       <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
         <v>50</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" t="s">
         <v>50</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>144</v>
+      <c r="I44" s="2">
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
-        <v>76</v>
+      <c r="B45" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
       <c r="D45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" t="s">
         <v>50</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>21</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
-        <v>77</v>
+      <c r="B46" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
       </c>
       <c r="D46" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>296</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
-        <v>82</v>
+      <c r="B48" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
       </c>
       <c r="D48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" t="s">
         <v>50</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>21</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>50</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>296</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>295</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>20</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>50</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>50</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>33</v>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>50</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>298</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>289</v>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>281</v>
+      <c r="B54" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>50</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>298</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>33</v>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>145</v>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>50</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E57" t="s">
         <v>50</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>21</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>288</v>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
+      <c r="B58" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
       <c r="D58" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" t="s">
         <v>50</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>21</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>146</v>
+      <c r="I58">
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>286</v>
+      <c r="I60">
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>246</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="B62" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>286</v>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>256</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>286</v>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\50x30AQP\agquery\Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2B8672-916E-4AC7-9D48-EB4CBC8CBD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA4A21-BEB7-41CD-9EAB-1FC8F09002C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="387">
   <si>
     <t>Poultry</t>
   </si>
@@ -422,9 +422,6 @@
     <t>Cattle Born</t>
   </si>
   <si>
-    <t>Cattle Used for Draugh (Y/N)</t>
-  </si>
-  <si>
     <t>Daily Egg Production</t>
   </si>
   <si>
@@ -1032,16 +1029,216 @@
   </si>
   <si>
     <t>Production Methods</t>
+  </si>
+  <si>
+    <t>Cattle Used for Draught</t>
+  </si>
+  <si>
+    <t>Household Raised Poultry</t>
+  </si>
+  <si>
+    <t>Households Raising Poultry (%)</t>
+  </si>
+  <si>
+    <t>Household Raised Cattle</t>
+  </si>
+  <si>
+    <t>Households Raising Cattle (%)</t>
+  </si>
+  <si>
+    <t>Household Raised Livestock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Households Raising Livestock (%) </t>
+  </si>
+  <si>
+    <t>fhh</t>
+  </si>
+  <si>
+    <t>Female-Headed Households</t>
+  </si>
+  <si>
+    <t>Female Headed Households (%)</t>
+  </si>
+  <si>
+    <t>ag_comm</t>
+  </si>
+  <si>
+    <t>Agricultural Community Memembership</t>
+  </si>
+  <si>
+    <t>ag_assoc</t>
+  </si>
+  <si>
+    <t>Agricultural Association Membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Membership in an Agricultural Community (%) </t>
+  </si>
+  <si>
+    <t>Household Membership in an Agricultural Association (%)</t>
+  </si>
+  <si>
+    <t>ag_extension</t>
+  </si>
+  <si>
+    <t>Households Receiving Extension Services</t>
+  </si>
+  <si>
+    <t>Households Receiving Extension Services (%)</t>
+  </si>
+  <si>
+    <t>raised_Poultry</t>
+  </si>
+  <si>
+    <t>raised_Cattle</t>
+  </si>
+  <si>
+    <t>raised_Livestock</t>
+  </si>
+  <si>
+    <t>raised_Buffalo</t>
+  </si>
+  <si>
+    <t>raised_Pigs</t>
+  </si>
+  <si>
+    <t>Households Raising Buffalo</t>
+  </si>
+  <si>
+    <t>Households Raising Pigs</t>
+  </si>
+  <si>
+    <t>Household Raising Buffalo (%)</t>
+  </si>
+  <si>
+    <t>Households Raising Pigs (%)</t>
+  </si>
+  <si>
+    <t>num_Pigs</t>
+  </si>
+  <si>
+    <t>num_Buffalo</t>
+  </si>
+  <si>
+    <t>live_sale_rate_Cattle</t>
+  </si>
+  <si>
+    <t>live_sale_rate_Pigs</t>
+  </si>
+  <si>
+    <t>live_sale_rate_Buffalo</t>
+  </si>
+  <si>
+    <t>sale_price_obs_Cattle</t>
+  </si>
+  <si>
+    <t>sale_price_obs_Buffalo</t>
+  </si>
+  <si>
+    <t>sale_price_obs_Pigs</t>
+  </si>
+  <si>
+    <t>prod_value_Buffalo</t>
+  </si>
+  <si>
+    <t>prod_value_Pigs</t>
+  </si>
+  <si>
+    <t>Number of Pigs Owned</t>
+  </si>
+  <si>
+    <t>Number of Buffalo Owned</t>
+  </si>
+  <si>
+    <t>Proportion of Cattle Herd Sold Live</t>
+  </si>
+  <si>
+    <t>Proportion of Pig Herd Sold Live</t>
+  </si>
+  <si>
+    <t>Proportion of Buffalo Herd Sold Live</t>
+  </si>
+  <si>
+    <t>Observed Sale Price for Cattle</t>
+  </si>
+  <si>
+    <t>Observed Sale Price for Buffalo</t>
+  </si>
+  <si>
+    <t>Observed Sale Price for Pigs</t>
+  </si>
+  <si>
+    <t>Total Value of Buffalo Produced</t>
+  </si>
+  <si>
+    <t>Total Value of Pigs Produced</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>peak_num_Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak_num_Pigs </t>
+  </si>
+  <si>
+    <t>vax_pct_Buffalo</t>
+  </si>
+  <si>
+    <t>vax_pct_Pigs</t>
+  </si>
+  <si>
+    <t>Vaccination Rate for Cattle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1238,47 +1435,52 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1613,13 +1815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1663,10 +1865,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>98</v>
@@ -1685,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -1700,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1709,10 +1911,10 @@
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,7 +1922,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>92</v>
@@ -1735,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
@@ -1749,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -1758,7 +1960,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>93</v>
@@ -1773,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
@@ -1787,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1796,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -1811,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1820,10 +2022,10 @@
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1831,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -1846,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1855,10 +2057,10 @@
         <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1866,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1881,22 +2083,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1904,13 +2106,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -1919,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1928,10 +2130,10 @@
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1939,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -1954,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1963,10 +2165,10 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1974,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1989,22 +2191,22 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2012,10 +2214,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>116</v>
@@ -2027,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2036,10 +2238,10 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2249,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -2062,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2071,10 +2273,10 @@
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2082,13 +2284,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -2106,10 +2308,10 @@
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2117,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -2132,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K14" t="s">
         <v>33</v>
@@ -2147,7 +2349,7 @@
         <v>33</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2155,7 +2357,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2170,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2182,42 +2384,42 @@
         <v>33</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2225,10 +2427,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>42</v>
@@ -2240,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2252,7 +2454,7 @@
         <v>33</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2260,7 +2462,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2275,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>33</v>
@@ -2290,7 +2492,7 @@
         <v>33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2298,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>119</v>
@@ -2313,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2325,50 +2527,50 @@
         <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>295</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>71</v>
@@ -2399,15 +2601,15 @@
         <v>33</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -2438,7 +2640,7 @@
         <v>33</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2446,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>73</v>
@@ -2477,7 +2679,7 @@
         <v>33</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,7 +2687,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -2500,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2512,7 +2714,7 @@
         <v>33</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2520,13 +2722,13 @@
         <v>45</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -2544,10 +2746,10 @@
         <v>25</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2555,13 +2757,13 @@
         <v>46</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -2576,14 +2778,14 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2591,13 +2793,13 @@
         <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -2612,14 +2814,14 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2627,14 +2829,14 @@
         <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
@@ -2642,34 +2844,34 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -2684,14 +2886,14 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,14 +2901,14 @@
         <v>49</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -2714,69 +2916,69 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>0</v>
@@ -2785,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2797,62 +2999,62 @@
         <v>33</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2870,24 +3072,24 @@
         <v>33</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2899,30 +3101,30 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2934,27 +3136,27 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>50</v>
@@ -2975,7 +3177,7 @@
         <v>33</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,7 +3185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
@@ -2992,7 +3194,7 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3004,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3018,7 +3220,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
@@ -3027,7 +3229,7 @@
         <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3040,10 +3242,10 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3051,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>104</v>
@@ -3066,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3078,7 +3280,7 @@
         <v>33</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3086,7 +3288,7 @@
         <v>101</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>102</v>
@@ -3101,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3113,15 +3315,15 @@
         <v>33</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>80</v>
@@ -3152,15 +3354,15 @@
         <v>33</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
@@ -3191,21 +3393,21 @@
         <v>33</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
         <v>50</v>
@@ -3220,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3234,13 +3436,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E45" t="s">
         <v>50</v>
@@ -3255,13 +3457,13 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3269,13 +3471,13 @@
         <v>54</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46" t="s">
         <v>50</v>
@@ -3290,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3304,13 +3506,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E47" t="s">
         <v>50</v>
@@ -3319,19 +3521,19 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3339,13 +3541,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" t="s">
         <v>50</v>
@@ -3360,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3374,13 +3576,13 @@
         <v>57</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E49" t="s">
         <v>50</v>
@@ -3389,27 +3591,27 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>107</v>
@@ -3436,7 +3638,7 @@
         <v>33</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3444,7 +3646,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>122</v>
@@ -3459,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3471,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3479,7 +3681,7 @@
         <v>109</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>124</v>
@@ -3494,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3506,7 +3708,7 @@
         <v>33</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,7 +3716,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>83</v>
@@ -3529,13 +3731,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>33</v>
@@ -3544,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3552,10 +3754,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>126</v>
@@ -3567,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3579,7 +3781,7 @@
         <v>33</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3587,7 +3789,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>128</v>
@@ -3602,19 +3804,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3622,7 +3824,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
@@ -3653,21 +3855,21 @@
         <v>33</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E57" t="s">
         <v>50</v>
@@ -3682,27 +3884,27 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E58" t="s">
         <v>50</v>
@@ -3717,27 +3919,27 @@
         <v>0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>50</v>
@@ -3755,24 +3957,24 @@
         <v>24</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>50</v>
@@ -3787,30 +3989,30 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>50</v>
@@ -3819,33 +4021,33 @@
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="M61" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>50</v>
@@ -3854,36 +4056,36 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>50</v>
@@ -3892,33 +4094,33 @@
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="M63" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>50</v>
@@ -3927,13 +4129,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>33</v>
@@ -3942,21 +4144,21 @@
         <v>33</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" t="s">
         <v>320</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C65" t="s">
-        <v>321</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>0</v>
@@ -3965,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2">
@@ -3976,8 +4178,578 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" t="s">
+        <v>333</v>
+      </c>
+      <c r="D66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" t="s">
+        <v>292</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" t="s">
+        <v>346</v>
+      </c>
+      <c r="E70" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" t="s">
+        <v>292</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
+        <v>357</v>
+      </c>
+      <c r="D74" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" t="s">
+        <v>370</v>
+      </c>
+      <c r="D75" t="s">
+        <v>370</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" t="s">
+        <v>371</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>381</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>383</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s">
+        <v>382</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80" t="s">
+        <v>101</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C81" t="s">
+        <v>376</v>
+      </c>
+      <c r="D81" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>295</v>
+      </c>
+      <c r="H81" t="s">
+        <v>383</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" t="s">
+        <v>382</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" t="s">
+        <v>379</v>
+      </c>
+      <c r="E84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s">
+        <v>382</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" t="s">
+        <v>386</v>
+      </c>
+      <c r="D86" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>383</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA4A21-BEB7-41CD-9EAB-1FC8F09002C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878861B-4169-4B7C-A82F-280566164CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1121,15 +1121,6 @@
     <t>num_Buffalo</t>
   </si>
   <si>
-    <t>live_sale_rate_Cattle</t>
-  </si>
-  <si>
-    <t>live_sale_rate_Pigs</t>
-  </si>
-  <si>
-    <t>live_sale_rate_Buffalo</t>
-  </si>
-  <si>
     <t>sale_price_obs_Cattle</t>
   </si>
   <si>
@@ -1194,16 +1185,32 @@
   </si>
   <si>
     <t>Vaccination Rate for Cattle</t>
+  </si>
+  <si>
+    <t>sale_rate_Buffalo</t>
+  </si>
+  <si>
+    <t>sale_rate_Pigs</t>
+  </si>
+  <si>
+    <t>sale_rate_Cattle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1435,47 +1442,48 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1818,10 +1826,10 @@
   <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -4420,19 +4428,19 @@
         <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E75" t="s">
         <v>50</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4446,36 +4454,36 @@
         <v>318</v>
       </c>
       <c r="C76" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
         <v>50</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>362</v>
+      <c r="A77" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E77" t="s">
         <v>50</v>
@@ -4494,17 +4502,17 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>363</v>
+      <c r="A78" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D78" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
@@ -4516,24 +4524,24 @@
         <v>86</v>
       </c>
       <c r="H78" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>364</v>
+      <c r="A79" s="14" t="s">
+        <v>384</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E79" t="s">
         <v>50</v>
@@ -4545,7 +4553,7 @@
         <v>86</v>
       </c>
       <c r="H79" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4553,16 +4561,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E80" t="s">
         <v>50</v>
@@ -4582,16 +4590,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C81" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E81" t="s">
         <v>50</v>
@@ -4603,7 +4611,7 @@
         <v>295</v>
       </c>
       <c r="H81" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4611,16 +4619,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C82" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D82" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
@@ -4632,7 +4640,7 @@
         <v>295</v>
       </c>
       <c r="H82" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -4640,16 +4648,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
         <v>50</v>
@@ -4666,16 +4674,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C84" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D84" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E84" t="s">
         <v>50</v>
@@ -4692,16 +4700,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D85" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E85" t="s">
         <v>50</v>
@@ -4713,7 +4721,7 @@
         <v>86</v>
       </c>
       <c r="H85" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4721,16 +4729,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C86" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E86" t="s">
         <v>50</v>
@@ -4742,14 +4750,14 @@
         <v>86</v>
       </c>
       <c r="H86" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878861B-4169-4B7C-A82F-280566164CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AA083-23FE-4301-A040-9FD03647F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="422">
   <si>
     <t>Poultry</t>
   </si>
@@ -1194,16 +1194,128 @@
   </si>
   <si>
     <t>sale_rate_Cattle</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>area_cashew_harvested</t>
+  </si>
+  <si>
+    <t>area_cashew_planted</t>
+  </si>
+  <si>
+    <t>qty_cashew_own_use</t>
+  </si>
+  <si>
+    <t>qty_cashew_sale</t>
+  </si>
+  <si>
+    <t>qty_cashew_gift</t>
+  </si>
+  <si>
+    <t>qty_cashew_pay</t>
+  </si>
+  <si>
+    <t>qty_cashew_feed</t>
+  </si>
+  <si>
+    <t>qty_cashew_seed</t>
+  </si>
+  <si>
+    <t>qty_cashew_lost</t>
+  </si>
+  <si>
+    <t>qty_cashew_processed</t>
+  </si>
+  <si>
+    <t>Households Cultivating Cashews</t>
+  </si>
+  <si>
+    <t>Percent of Households Cultivating Cashews</t>
+  </si>
+  <si>
+    <t>Area of Cashews Harvested</t>
+  </si>
+  <si>
+    <t>Area of Cashews Planted</t>
+  </si>
+  <si>
+    <t>Area of Cashews Harvested (ha)</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Kept</t>
+  </si>
+  <si>
+    <t>Area of Cashews Planted (ha)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Kept (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Sold</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Sold (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Gifted</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Given as Gifts (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Given as Payments</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Used for Animal Feed</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Used for Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity of Cashews Lost </t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Damaged</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Given as Payment (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Used for Animal Feed (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Lost (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Damaged (kg)</t>
+  </si>
+  <si>
+    <t>Quantity of Cashews Used for Seed (kg)</t>
+  </si>
+  <si>
+    <t>Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1442,47 +1554,48 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1823,13 +1936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,8 +4869,294 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>403</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" t="s">
+        <v>405</v>
+      </c>
+      <c r="E89" t="s">
+        <v>288</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>403</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E90" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>403</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>407</v>
+      </c>
+      <c r="D91" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>421</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" t="s">
+        <v>288</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>421</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C93" t="s">
+        <v>411</v>
+      </c>
+      <c r="D93" t="s">
+        <v>416</v>
+      </c>
+      <c r="E93" t="s">
+        <v>288</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>421</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" t="s">
+        <v>412</v>
+      </c>
+      <c r="D94" t="s">
+        <v>417</v>
+      </c>
+      <c r="E94" t="s">
+        <v>288</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>421</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" t="s">
+        <v>413</v>
+      </c>
+      <c r="D95" t="s">
+        <v>420</v>
+      </c>
+      <c r="E95" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>421</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" t="s">
+        <v>414</v>
+      </c>
+      <c r="D96" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>421</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" t="s">
+        <v>415</v>
+      </c>
+      <c r="D97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>421</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agquery/Update/indicators.xlsx
+++ b/agquery/Update/indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altomes\Desktop\50x30_AQP\agquery\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AA083-23FE-4301-A040-9FD03647F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7100BF5-6645-4DF7-B9F3-52824DE97568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="424">
   <si>
     <t>Poultry</t>
   </si>
@@ -1299,6 +1299,12 @@
   </si>
   <si>
     <t>Kg</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Only 258 households reported purchasing chickens in 2022</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1945,10 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2563,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2826,7 +2832,10 @@
         <v>297</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>423</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>95</v>
